--- a/Module_2/Case Study/Check List CaseStudy C0320G1.xlsx
+++ b/Module_2/Case Study/Check List CaseStudy C0320G1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="59">
   <si>
     <t>Module</t>
   </si>
@@ -556,59 +556,59 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -845,50 +845,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="62"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="48"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55">
-        <v>1</v>
-      </c>
-      <c r="B3" s="58" t="s">
+      <c r="A3" s="50">
+        <v>1</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
@@ -908,8 +908,8 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="3">
         <v>43926</v>
       </c>
@@ -931,8 +931,8 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="3">
         <v>43928</v>
       </c>
@@ -954,8 +954,8 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="3">
         <v>43930</v>
       </c>
@@ -977,8 +977,8 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="3">
         <v>43932</v>
       </c>
@@ -1000,8 +1000,8 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="3">
         <v>43934</v>
       </c>
@@ -1023,8 +1023,8 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="3">
         <v>43936</v>
       </c>
@@ -1048,8 +1048,8 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="3">
         <v>43938</v>
       </c>
@@ -1070,8 +1070,8 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="3">
         <v>43940</v>
       </c>
@@ -1093,8 +1093,8 @@
       <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="3">
         <v>43942</v>
       </c>
@@ -1118,8 +1118,8 @@
       <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="3">
         <v>43944</v>
       </c>
@@ -1141,8 +1141,8 @@
       <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="3">
         <v>43946</v>
       </c>
@@ -1162,8 +1162,8 @@
       <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="3">
         <v>43948</v>
       </c>
@@ -1183,8 +1183,8 @@
       <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="3">
         <v>43950</v>
       </c>
@@ -1204,10 +1204,10 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57">
-        <v>2</v>
-      </c>
-      <c r="B17" s="59" t="s">
+      <c r="A17" s="55">
+        <v>2</v>
+      </c>
+      <c r="B17" s="56" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="19">
@@ -1230,8 +1230,8 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="19">
         <v>43926</v>
       </c>
@@ -1253,8 +1253,8 @@
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="19">
         <v>43928</v>
       </c>
@@ -1276,8 +1276,8 @@
       <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="19">
         <v>43930</v>
       </c>
@@ -1299,8 +1299,8 @@
       <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="19">
         <v>43932</v>
       </c>
@@ -1322,8 +1322,8 @@
       <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="19">
         <v>43934</v>
       </c>
@@ -1345,8 +1345,8 @@
       <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="19">
         <v>43936</v>
       </c>
@@ -1368,8 +1368,8 @@
       <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="19">
         <v>43938</v>
       </c>
@@ -1391,8 +1391,8 @@
       <c r="J24" s="34"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="19">
         <v>43940</v>
       </c>
@@ -1414,8 +1414,8 @@
       <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="19">
         <v>43942</v>
       </c>
@@ -1437,8 +1437,8 @@
       <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="19">
         <v>43944</v>
       </c>
@@ -1460,8 +1460,8 @@
       <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="19">
         <v>43946</v>
       </c>
@@ -1481,8 +1481,8 @@
       <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="19">
         <v>43948</v>
       </c>
@@ -1502,8 +1502,8 @@
       <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="61"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="19">
         <v>43950</v>
       </c>
@@ -1523,10 +1523,10 @@
       <c r="J30" s="34"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55">
+      <c r="A31" s="50">
         <v>3</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="59" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="3">
@@ -1549,8 +1549,8 @@
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="50"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="3">
         <v>43926</v>
       </c>
@@ -1572,8 +1572,8 @@
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="3">
         <v>43928</v>
       </c>
@@ -1595,8 +1595,8 @@
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="3">
         <v>43930</v>
       </c>
@@ -1618,8 +1618,8 @@
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="50"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="3">
         <v>43932</v>
       </c>
@@ -1641,8 +1641,8 @@
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="50"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="3">
         <v>43934</v>
       </c>
@@ -1664,8 +1664,8 @@
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="50"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="3">
         <v>43936</v>
       </c>
@@ -1687,8 +1687,8 @@
       <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="3">
         <v>43938</v>
       </c>
@@ -1710,8 +1710,8 @@
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="50"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="3">
         <v>43940</v>
       </c>
@@ -1733,8 +1733,8 @@
       <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="50"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="3">
         <v>43942</v>
       </c>
@@ -1756,8 +1756,8 @@
       <c r="J40" s="24"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="50"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="3">
         <v>43944</v>
       </c>
@@ -1779,8 +1779,8 @@
       <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="50"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="3">
         <v>43946</v>
       </c>
@@ -1800,8 +1800,8 @@
       <c r="J42" s="24"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="50"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="3">
         <v>43948</v>
       </c>
@@ -1821,8 +1821,8 @@
       <c r="J43" s="24"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="51"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="3">
         <v>43950</v>
       </c>
@@ -1842,10 +1842,10 @@
       <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="57">
+      <c r="A45" s="55">
         <v>4</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C45" s="19">
@@ -1868,8 +1868,8 @@
       <c r="J45" s="27"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="19">
         <v>43926</v>
       </c>
@@ -1891,8 +1891,8 @@
       <c r="J46" s="27"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="19">
         <v>43928</v>
       </c>
@@ -1914,8 +1914,8 @@
       <c r="J47" s="27"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="19">
         <v>43930</v>
       </c>
@@ -1937,8 +1937,8 @@
       <c r="J48" s="27"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="19">
         <v>43932</v>
       </c>
@@ -1960,8 +1960,8 @@
       <c r="J49" s="27"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="19">
         <v>43934</v>
       </c>
@@ -1983,8 +1983,8 @@
       <c r="J50" s="27"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="19">
         <v>43936</v>
       </c>
@@ -2006,8 +2006,8 @@
       <c r="J51" s="34"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
       <c r="C52" s="19">
         <v>43938</v>
       </c>
@@ -2029,8 +2029,8 @@
       <c r="J52" s="34"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
-      <c r="B53" s="47"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="19">
         <v>43940</v>
       </c>
@@ -2052,8 +2052,8 @@
       <c r="J53" s="34"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="19">
         <v>43942</v>
       </c>
@@ -2075,8 +2075,8 @@
       <c r="J54" s="34"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="19">
         <v>43944</v>
       </c>
@@ -2098,8 +2098,8 @@
       <c r="J55" s="34"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="19">
         <v>43946</v>
       </c>
@@ -2119,8 +2119,8 @@
       <c r="J56" s="34"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="19">
         <v>43948</v>
       </c>
@@ -2140,8 +2140,8 @@
       <c r="J57" s="34"/>
     </row>
     <row r="58" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="48"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="19">
         <v>43950</v>
       </c>
@@ -2161,10 +2161,10 @@
       <c r="J58" s="34"/>
     </row>
     <row r="59" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="55">
+      <c r="A59" s="50">
         <v>5</v>
       </c>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="61" t="s">
         <v>36</v>
       </c>
       <c r="C59" s="3">
@@ -2187,8 +2187,8 @@
       <c r="J59" s="9"/>
     </row>
     <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
       <c r="C60" s="3">
         <v>43926</v>
       </c>
@@ -2210,8 +2210,8 @@
       <c r="J60" s="9"/>
     </row>
     <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="3">
         <v>43928</v>
       </c>
@@ -2233,8 +2233,8 @@
       <c r="J61" s="9"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="51"/>
       <c r="C62" s="3">
         <v>43930</v>
       </c>
@@ -2256,8 +2256,8 @@
       <c r="J62" s="9"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
       <c r="C63" s="3">
         <v>43932</v>
       </c>
@@ -2279,8 +2279,8 @@
       <c r="J63" s="9"/>
     </row>
     <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="51"/>
       <c r="C64" s="3">
         <v>43934</v>
       </c>
@@ -2302,8 +2302,8 @@
       <c r="J64" s="9"/>
     </row>
     <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="3">
         <v>43936</v>
       </c>
@@ -2325,8 +2325,8 @@
       <c r="J65" s="9"/>
     </row>
     <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="3">
         <v>43938</v>
       </c>
@@ -2348,8 +2348,8 @@
       <c r="J66" s="9"/>
     </row>
     <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="3">
         <v>43940</v>
       </c>
@@ -2371,8 +2371,8 @@
       <c r="J67" s="9"/>
     </row>
     <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="51"/>
       <c r="C68" s="3">
         <v>43942</v>
       </c>
@@ -2394,8 +2394,8 @@
       <c r="J68" s="9"/>
     </row>
     <row r="69" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="3">
         <v>43944</v>
       </c>
@@ -2417,8 +2417,8 @@
       <c r="J69" s="9"/>
     </row>
     <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="51"/>
       <c r="C70" s="3">
         <v>43946</v>
       </c>
@@ -2438,8 +2438,8 @@
       <c r="J70" s="9"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="3">
         <v>43948</v>
       </c>
@@ -2459,8 +2459,8 @@
       <c r="J71" s="9"/>
     </row>
     <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
-      <c r="B72" s="48"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="3">
         <v>43950</v>
       </c>
@@ -2480,10 +2480,10 @@
       <c r="J72" s="9"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="57">
+      <c r="A73" s="55">
         <v>6</v>
       </c>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="60" t="s">
         <v>40</v>
       </c>
       <c r="C73" s="19">
@@ -2506,8 +2506,8 @@
       <c r="J73" s="27"/>
     </row>
     <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
-      <c r="B74" s="47"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="51"/>
       <c r="C74" s="19">
         <v>43926</v>
       </c>
@@ -2529,8 +2529,8 @@
       <c r="J74" s="27"/>
     </row>
     <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="47"/>
-      <c r="B75" s="47"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="51"/>
       <c r="C75" s="19">
         <v>43928</v>
       </c>
@@ -2552,8 +2552,8 @@
       <c r="J75" s="27"/>
     </row>
     <row r="76" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
-      <c r="B76" s="47"/>
+      <c r="A76" s="51"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="19">
         <v>43930</v>
       </c>
@@ -2575,8 +2575,8 @@
       <c r="J76" s="27"/>
     </row>
     <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="47"/>
-      <c r="B77" s="47"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="51"/>
       <c r="C77" s="19">
         <v>43932</v>
       </c>
@@ -2598,8 +2598,8 @@
       <c r="J77" s="27"/>
     </row>
     <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
-      <c r="B78" s="47"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="51"/>
       <c r="C78" s="19">
         <v>43934</v>
       </c>
@@ -2621,8 +2621,8 @@
       <c r="J78" s="27"/>
     </row>
     <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="47"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="51"/>
       <c r="C79" s="19">
         <v>43936</v>
       </c>
@@ -2644,8 +2644,8 @@
       <c r="J79" s="34"/>
     </row>
     <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
-      <c r="B80" s="47"/>
+      <c r="A80" s="51"/>
+      <c r="B80" s="51"/>
       <c r="C80" s="19">
         <v>43938</v>
       </c>
@@ -2667,8 +2667,8 @@
       <c r="J80" s="34"/>
     </row>
     <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="47"/>
-      <c r="B81" s="47"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="51"/>
       <c r="C81" s="19">
         <v>43940</v>
       </c>
@@ -2690,8 +2690,8 @@
       <c r="J81" s="34"/>
     </row>
     <row r="82" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="47"/>
-      <c r="B82" s="47"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="51"/>
       <c r="C82" s="19">
         <v>43942</v>
       </c>
@@ -2713,8 +2713,8 @@
       <c r="J82" s="34"/>
     </row>
     <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="47"/>
-      <c r="B83" s="47"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="51"/>
       <c r="C83" s="19">
         <v>43944</v>
       </c>
@@ -2736,8 +2736,8 @@
       <c r="J83" s="34"/>
     </row>
     <row r="84" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="47"/>
-      <c r="B84" s="47"/>
+      <c r="A84" s="51"/>
+      <c r="B84" s="51"/>
       <c r="C84" s="19">
         <v>43946</v>
       </c>
@@ -2757,8 +2757,8 @@
       <c r="J84" s="34"/>
     </row>
     <row r="85" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="47"/>
-      <c r="B85" s="47"/>
+      <c r="A85" s="51"/>
+      <c r="B85" s="51"/>
       <c r="C85" s="19">
         <v>43948</v>
       </c>
@@ -2778,8 +2778,8 @@
       <c r="J85" s="34"/>
     </row>
     <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="47"/>
-      <c r="B86" s="48"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="19">
         <v>43950</v>
       </c>
@@ -2799,10 +2799,10 @@
       <c r="J86" s="34"/>
     </row>
     <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="55">
+      <c r="A87" s="50">
         <v>7</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="61" t="s">
         <v>42</v>
       </c>
       <c r="C87" s="3">
@@ -2825,8 +2825,8 @@
       <c r="J87" s="9"/>
     </row>
     <row r="88" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
-      <c r="B88" s="47"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="51"/>
       <c r="C88" s="3">
         <v>43926</v>
       </c>
@@ -2848,8 +2848,8 @@
       <c r="J88" s="9"/>
     </row>
     <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="47"/>
-      <c r="B89" s="47"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="51"/>
       <c r="C89" s="3">
         <v>43928</v>
       </c>
@@ -2871,8 +2871,8 @@
       <c r="J89" s="9"/>
     </row>
     <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="47"/>
-      <c r="B90" s="47"/>
+      <c r="A90" s="51"/>
+      <c r="B90" s="51"/>
       <c r="C90" s="3">
         <v>43930</v>
       </c>
@@ -2894,8 +2894,8 @@
       <c r="J90" s="9"/>
     </row>
     <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="47"/>
-      <c r="B91" s="47"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="51"/>
       <c r="C91" s="3">
         <v>43932</v>
       </c>
@@ -2917,8 +2917,8 @@
       <c r="J91" s="9"/>
     </row>
     <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="47"/>
-      <c r="B92" s="47"/>
+      <c r="A92" s="51"/>
+      <c r="B92" s="51"/>
       <c r="C92" s="3">
         <v>43934</v>
       </c>
@@ -2940,8 +2940,8 @@
       <c r="J92" s="9"/>
     </row>
     <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="47"/>
-      <c r="B93" s="47"/>
+      <c r="A93" s="51"/>
+      <c r="B93" s="51"/>
       <c r="C93" s="3">
         <v>43936</v>
       </c>
@@ -2963,8 +2963,8 @@
       <c r="J93" s="24"/>
     </row>
     <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="47"/>
-      <c r="B94" s="47"/>
+      <c r="A94" s="51"/>
+      <c r="B94" s="51"/>
       <c r="C94" s="3">
         <v>43938</v>
       </c>
@@ -2986,8 +2986,8 @@
       <c r="J94" s="24"/>
     </row>
     <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="47"/>
-      <c r="B95" s="47"/>
+      <c r="A95" s="51"/>
+      <c r="B95" s="51"/>
       <c r="C95" s="3">
         <v>43940</v>
       </c>
@@ -3009,8 +3009,8 @@
       <c r="J95" s="24"/>
     </row>
     <row r="96" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="47"/>
-      <c r="B96" s="47"/>
+      <c r="A96" s="51"/>
+      <c r="B96" s="51"/>
       <c r="C96" s="3">
         <v>43942</v>
       </c>
@@ -3032,8 +3032,8 @@
       <c r="J96" s="24"/>
     </row>
     <row r="97" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="47"/>
-      <c r="B97" s="47"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="51"/>
       <c r="C97" s="3">
         <v>43944</v>
       </c>
@@ -3055,8 +3055,8 @@
       <c r="J97" s="24"/>
     </row>
     <row r="98" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="47"/>
-      <c r="B98" s="47"/>
+      <c r="A98" s="51"/>
+      <c r="B98" s="51"/>
       <c r="C98" s="3">
         <v>43946</v>
       </c>
@@ -3078,8 +3078,8 @@
       <c r="J98" s="24"/>
     </row>
     <row r="99" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="47"/>
-      <c r="B99" s="47"/>
+      <c r="A99" s="51"/>
+      <c r="B99" s="51"/>
       <c r="C99" s="3">
         <v>43948</v>
       </c>
@@ -3101,8 +3101,8 @@
       <c r="J99" s="24"/>
     </row>
     <row r="100" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="47"/>
-      <c r="B100" s="48"/>
+      <c r="A100" s="51"/>
+      <c r="B100" s="47"/>
       <c r="C100" s="3">
         <v>43950</v>
       </c>
@@ -3122,10 +3122,10 @@
       <c r="J100" s="24"/>
     </row>
     <row r="101" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="57">
+      <c r="A101" s="55">
         <v>8</v>
       </c>
-      <c r="B101" s="54" t="s">
+      <c r="B101" s="60" t="s">
         <v>30</v>
       </c>
       <c r="C101" s="19">
@@ -3148,8 +3148,8 @@
       <c r="J101" s="27"/>
     </row>
     <row r="102" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="47"/>
-      <c r="B102" s="47"/>
+      <c r="A102" s="51"/>
+      <c r="B102" s="51"/>
       <c r="C102" s="19">
         <v>43926</v>
       </c>
@@ -3171,8 +3171,8 @@
       <c r="J102" s="27"/>
     </row>
     <row r="103" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="47"/>
-      <c r="B103" s="47"/>
+      <c r="A103" s="51"/>
+      <c r="B103" s="51"/>
       <c r="C103" s="19">
         <v>43928</v>
       </c>
@@ -3194,8 +3194,8 @@
       <c r="J103" s="27"/>
     </row>
     <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="47"/>
-      <c r="B104" s="47"/>
+      <c r="A104" s="51"/>
+      <c r="B104" s="51"/>
       <c r="C104" s="19">
         <v>43930</v>
       </c>
@@ -3217,8 +3217,8 @@
       <c r="J104" s="27"/>
     </row>
     <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="47"/>
-      <c r="B105" s="47"/>
+      <c r="A105" s="51"/>
+      <c r="B105" s="51"/>
       <c r="C105" s="19">
         <v>43932</v>
       </c>
@@ -3240,8 +3240,8 @@
       <c r="J105" s="27"/>
     </row>
     <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="47"/>
-      <c r="B106" s="47"/>
+      <c r="A106" s="51"/>
+      <c r="B106" s="51"/>
       <c r="C106" s="19">
         <v>43934</v>
       </c>
@@ -3263,8 +3263,8 @@
       <c r="J106" s="27"/>
     </row>
     <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="47"/>
-      <c r="B107" s="47"/>
+      <c r="A107" s="51"/>
+      <c r="B107" s="51"/>
       <c r="C107" s="19">
         <v>43936</v>
       </c>
@@ -3286,8 +3286,8 @@
       <c r="J107" s="34"/>
     </row>
     <row r="108" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="47"/>
-      <c r="B108" s="47"/>
+      <c r="A108" s="51"/>
+      <c r="B108" s="51"/>
       <c r="C108" s="19">
         <v>43938</v>
       </c>
@@ -3309,8 +3309,8 @@
       <c r="J108" s="34"/>
     </row>
     <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="47"/>
-      <c r="B109" s="47"/>
+      <c r="A109" s="51"/>
+      <c r="B109" s="51"/>
       <c r="C109" s="19">
         <v>43940</v>
       </c>
@@ -3332,8 +3332,8 @@
       <c r="J109" s="34"/>
     </row>
     <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="47"/>
-      <c r="B110" s="47"/>
+      <c r="A110" s="51"/>
+      <c r="B110" s="51"/>
       <c r="C110" s="19">
         <v>43942</v>
       </c>
@@ -3355,8 +3355,8 @@
       <c r="J110" s="34"/>
     </row>
     <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="47"/>
-      <c r="B111" s="47"/>
+      <c r="A111" s="51"/>
+      <c r="B111" s="51"/>
       <c r="C111" s="19">
         <v>43944</v>
       </c>
@@ -3378,8 +3378,8 @@
       <c r="J111" s="34"/>
     </row>
     <row r="112" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="47"/>
-      <c r="B112" s="47"/>
+      <c r="A112" s="51"/>
+      <c r="B112" s="51"/>
       <c r="C112" s="19">
         <v>43946</v>
       </c>
@@ -3401,8 +3401,8 @@
       <c r="J112" s="34"/>
     </row>
     <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="47"/>
-      <c r="B113" s="47"/>
+      <c r="A113" s="51"/>
+      <c r="B113" s="51"/>
       <c r="C113" s="19">
         <v>43948</v>
       </c>
@@ -3424,8 +3424,8 @@
       <c r="J113" s="34"/>
     </row>
     <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="47"/>
-      <c r="B114" s="48"/>
+      <c r="A114" s="51"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="19">
         <v>43950</v>
       </c>
@@ -3445,10 +3445,10 @@
       <c r="J114" s="34"/>
     </row>
     <row r="115" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="55">
+      <c r="A115" s="50">
         <v>9</v>
       </c>
-      <c r="B115" s="53" t="s">
+      <c r="B115" s="59" t="s">
         <v>31</v>
       </c>
       <c r="C115" s="3">
@@ -3471,8 +3471,8 @@
       <c r="J115" s="9"/>
     </row>
     <row r="116" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="47"/>
-      <c r="B116" s="50"/>
+      <c r="A116" s="51"/>
+      <c r="B116" s="53"/>
       <c r="C116" s="3">
         <v>43926</v>
       </c>
@@ -3494,8 +3494,8 @@
       <c r="J116" s="9"/>
     </row>
     <row r="117" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="47"/>
-      <c r="B117" s="50"/>
+      <c r="A117" s="51"/>
+      <c r="B117" s="53"/>
       <c r="C117" s="3">
         <v>43928</v>
       </c>
@@ -3517,8 +3517,8 @@
       <c r="J117" s="9"/>
     </row>
     <row r="118" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="47"/>
-      <c r="B118" s="50"/>
+      <c r="A118" s="51"/>
+      <c r="B118" s="53"/>
       <c r="C118" s="3">
         <v>43930</v>
       </c>
@@ -3540,8 +3540,8 @@
       <c r="J118" s="9"/>
     </row>
     <row r="119" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="47"/>
-      <c r="B119" s="50"/>
+      <c r="A119" s="51"/>
+      <c r="B119" s="53"/>
       <c r="C119" s="3">
         <v>43932</v>
       </c>
@@ -3563,8 +3563,8 @@
       <c r="J119" s="9"/>
     </row>
     <row r="120" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="47"/>
-      <c r="B120" s="50"/>
+      <c r="A120" s="51"/>
+      <c r="B120" s="53"/>
       <c r="C120" s="3">
         <v>43934</v>
       </c>
@@ -3586,8 +3586,8 @@
       <c r="J120" s="9"/>
     </row>
     <row r="121" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="47"/>
-      <c r="B121" s="50"/>
+      <c r="A121" s="51"/>
+      <c r="B121" s="53"/>
       <c r="C121" s="3">
         <v>43936</v>
       </c>
@@ -3609,8 +3609,8 @@
       <c r="J121" s="24"/>
     </row>
     <row r="122" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="47"/>
-      <c r="B122" s="50"/>
+      <c r="A122" s="51"/>
+      <c r="B122" s="53"/>
       <c r="C122" s="3">
         <v>43938</v>
       </c>
@@ -3632,8 +3632,8 @@
       <c r="J122" s="24"/>
     </row>
     <row r="123" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="47"/>
-      <c r="B123" s="50"/>
+      <c r="A123" s="51"/>
+      <c r="B123" s="53"/>
       <c r="C123" s="3">
         <v>43940</v>
       </c>
@@ -3655,8 +3655,8 @@
       <c r="J123" s="24"/>
     </row>
     <row r="124" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="47"/>
-      <c r="B124" s="50"/>
+      <c r="A124" s="51"/>
+      <c r="B124" s="53"/>
       <c r="C124" s="3">
         <v>43942</v>
       </c>
@@ -3678,8 +3678,8 @@
       <c r="J124" s="24"/>
     </row>
     <row r="125" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="47"/>
-      <c r="B125" s="50"/>
+      <c r="A125" s="51"/>
+      <c r="B125" s="53"/>
       <c r="C125" s="3">
         <v>43944</v>
       </c>
@@ -3701,8 +3701,8 @@
       <c r="J125" s="24"/>
     </row>
     <row r="126" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="47"/>
-      <c r="B126" s="50"/>
+      <c r="A126" s="51"/>
+      <c r="B126" s="53"/>
       <c r="C126" s="3">
         <v>43946</v>
       </c>
@@ -3722,8 +3722,8 @@
       <c r="J126" s="24"/>
     </row>
     <row r="127" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="47"/>
-      <c r="B127" s="50"/>
+      <c r="A127" s="51"/>
+      <c r="B127" s="53"/>
       <c r="C127" s="3">
         <v>43948</v>
       </c>
@@ -3743,8 +3743,8 @@
       <c r="J127" s="24"/>
     </row>
     <row r="128" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="47"/>
-      <c r="B128" s="51"/>
+      <c r="A128" s="51"/>
+      <c r="B128" s="54"/>
       <c r="C128" s="3">
         <v>43950</v>
       </c>
@@ -3764,10 +3764,10 @@
       <c r="J128" s="24"/>
     </row>
     <row r="129" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="57">
+      <c r="A129" s="55">
         <v>10</v>
       </c>
-      <c r="B129" s="54" t="s">
+      <c r="B129" s="60" t="s">
         <v>32</v>
       </c>
       <c r="C129" s="19">
@@ -3790,8 +3790,8 @@
       <c r="J129" s="27"/>
     </row>
     <row r="130" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="47"/>
-      <c r="B130" s="47"/>
+      <c r="A130" s="51"/>
+      <c r="B130" s="51"/>
       <c r="C130" s="19">
         <v>43926</v>
       </c>
@@ -3813,8 +3813,8 @@
       <c r="J130" s="27"/>
     </row>
     <row r="131" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="47"/>
-      <c r="B131" s="47"/>
+      <c r="A131" s="51"/>
+      <c r="B131" s="51"/>
       <c r="C131" s="19">
         <v>43928</v>
       </c>
@@ -3836,8 +3836,8 @@
       <c r="J131" s="27"/>
     </row>
     <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="47"/>
-      <c r="B132" s="47"/>
+      <c r="A132" s="51"/>
+      <c r="B132" s="51"/>
       <c r="C132" s="19">
         <v>43930</v>
       </c>
@@ -3859,8 +3859,8 @@
       <c r="J132" s="27"/>
     </row>
     <row r="133" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="47"/>
-      <c r="B133" s="47"/>
+      <c r="A133" s="51"/>
+      <c r="B133" s="51"/>
       <c r="C133" s="19">
         <v>43932</v>
       </c>
@@ -3882,8 +3882,8 @@
       <c r="J133" s="27"/>
     </row>
     <row r="134" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="47"/>
-      <c r="B134" s="47"/>
+      <c r="A134" s="51"/>
+      <c r="B134" s="51"/>
       <c r="C134" s="19">
         <v>43934</v>
       </c>
@@ -3905,8 +3905,8 @@
       <c r="J134" s="27"/>
     </row>
     <row r="135" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="47"/>
-      <c r="B135" s="47"/>
+      <c r="A135" s="51"/>
+      <c r="B135" s="51"/>
       <c r="C135" s="19">
         <v>43936</v>
       </c>
@@ -3928,8 +3928,8 @@
       <c r="J135" s="34"/>
     </row>
     <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="47"/>
-      <c r="B136" s="47"/>
+      <c r="A136" s="51"/>
+      <c r="B136" s="51"/>
       <c r="C136" s="19">
         <v>43938</v>
       </c>
@@ -3951,8 +3951,8 @@
       <c r="J136" s="34"/>
     </row>
     <row r="137" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="47"/>
-      <c r="B137" s="47"/>
+      <c r="A137" s="51"/>
+      <c r="B137" s="51"/>
       <c r="C137" s="19">
         <v>43940</v>
       </c>
@@ -3974,8 +3974,8 @@
       <c r="J137" s="34"/>
     </row>
     <row r="138" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="47"/>
-      <c r="B138" s="47"/>
+      <c r="A138" s="51"/>
+      <c r="B138" s="51"/>
       <c r="C138" s="19">
         <v>43942</v>
       </c>
@@ -3997,8 +3997,8 @@
       <c r="J138" s="34"/>
     </row>
     <row r="139" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="47"/>
-      <c r="B139" s="47"/>
+      <c r="A139" s="51"/>
+      <c r="B139" s="51"/>
       <c r="C139" s="19">
         <v>43944</v>
       </c>
@@ -4020,8 +4020,8 @@
       <c r="J139" s="34"/>
     </row>
     <row r="140" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="47"/>
-      <c r="B140" s="47"/>
+      <c r="A140" s="51"/>
+      <c r="B140" s="51"/>
       <c r="C140" s="19">
         <v>43946</v>
       </c>
@@ -4041,8 +4041,8 @@
       <c r="J140" s="34"/>
     </row>
     <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="47"/>
-      <c r="B141" s="47"/>
+      <c r="A141" s="51"/>
+      <c r="B141" s="51"/>
       <c r="C141" s="19">
         <v>43948</v>
       </c>
@@ -4062,8 +4062,8 @@
       <c r="J141" s="34"/>
     </row>
     <row r="142" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="47"/>
-      <c r="B142" s="48"/>
+      <c r="A142" s="51"/>
+      <c r="B142" s="47"/>
       <c r="C142" s="19">
         <v>43950</v>
       </c>
@@ -4083,10 +4083,10 @@
       <c r="J142" s="34"/>
     </row>
     <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="55">
-        <v>11</v>
-      </c>
-      <c r="B143" s="56" t="s">
+      <c r="A143" s="50">
+        <v>11</v>
+      </c>
+      <c r="B143" s="61" t="s">
         <v>33</v>
       </c>
       <c r="C143" s="3">
@@ -4110,8 +4110,8 @@
       <c r="I143" s="8"/>
     </row>
     <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="47"/>
-      <c r="B144" s="47"/>
+      <c r="A144" s="51"/>
+      <c r="B144" s="51"/>
       <c r="C144" s="3">
         <v>43926</v>
       </c>
@@ -4132,8 +4132,8 @@
       <c r="I144" s="11"/>
     </row>
     <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="47"/>
-      <c r="B145" s="47"/>
+      <c r="A145" s="51"/>
+      <c r="B145" s="51"/>
       <c r="C145" s="3">
         <v>43928</v>
       </c>
@@ -4154,8 +4154,8 @@
       <c r="I145" s="11"/>
     </row>
     <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="47"/>
-      <c r="B146" s="47"/>
+      <c r="A146" s="51"/>
+      <c r="B146" s="51"/>
       <c r="C146" s="3">
         <v>43930</v>
       </c>
@@ -4176,8 +4176,8 @@
       <c r="I146" s="11"/>
     </row>
     <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="47"/>
-      <c r="B147" s="47"/>
+      <c r="A147" s="51"/>
+      <c r="B147" s="51"/>
       <c r="C147" s="3">
         <v>43932</v>
       </c>
@@ -4198,8 +4198,8 @@
       <c r="I147" s="11"/>
     </row>
     <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="47"/>
-      <c r="B148" s="47"/>
+      <c r="A148" s="51"/>
+      <c r="B148" s="51"/>
       <c r="C148" s="3">
         <v>43934</v>
       </c>
@@ -4220,8 +4220,8 @@
       <c r="I148" s="11"/>
     </row>
     <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="47"/>
-      <c r="B149" s="47"/>
+      <c r="A149" s="51"/>
+      <c r="B149" s="51"/>
       <c r="C149" s="3">
         <v>43936</v>
       </c>
@@ -4242,8 +4242,8 @@
       <c r="I149" s="11"/>
     </row>
     <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="47"/>
-      <c r="B150" s="47"/>
+      <c r="A150" s="51"/>
+      <c r="B150" s="51"/>
       <c r="C150" s="3">
         <v>43938</v>
       </c>
@@ -4264,8 +4264,8 @@
       <c r="I150" s="11"/>
     </row>
     <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="47"/>
-      <c r="B151" s="47"/>
+      <c r="A151" s="51"/>
+      <c r="B151" s="51"/>
       <c r="C151" s="3">
         <v>43940</v>
       </c>
@@ -4286,8 +4286,8 @@
       <c r="I151" s="11"/>
     </row>
     <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="47"/>
-      <c r="B152" s="47"/>
+      <c r="A152" s="51"/>
+      <c r="B152" s="51"/>
       <c r="C152" s="3">
         <v>43942</v>
       </c>
@@ -4308,8 +4308,8 @@
       <c r="I152" s="15"/>
     </row>
     <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="47"/>
-      <c r="B153" s="47"/>
+      <c r="A153" s="51"/>
+      <c r="B153" s="51"/>
       <c r="C153" s="3">
         <v>43944</v>
       </c>
@@ -4330,8 +4330,8 @@
       <c r="I153" s="15"/>
     </row>
     <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="47"/>
-      <c r="B154" s="47"/>
+      <c r="A154" s="51"/>
+      <c r="B154" s="51"/>
       <c r="C154" s="3">
         <v>43946</v>
       </c>
@@ -4350,8 +4350,8 @@
       <c r="I154" s="15"/>
     </row>
     <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="47"/>
-      <c r="B155" s="47"/>
+      <c r="A155" s="51"/>
+      <c r="B155" s="51"/>
       <c r="C155" s="3">
         <v>43948</v>
       </c>
@@ -4370,8 +4370,8 @@
       <c r="I155" s="15"/>
     </row>
     <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="47"/>
-      <c r="B156" s="48"/>
+      <c r="A156" s="51"/>
+      <c r="B156" s="47"/>
       <c r="C156" s="3">
         <v>43950</v>
       </c>
@@ -4390,10 +4390,10 @@
       <c r="I156" s="16"/>
     </row>
     <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="57">
+      <c r="A157" s="55">
         <v>12</v>
       </c>
-      <c r="B157" s="54" t="s">
+      <c r="B157" s="60" t="s">
         <v>34</v>
       </c>
       <c r="C157" s="19">
@@ -4418,8 +4418,8 @@
       <c r="J157" s="27"/>
     </row>
     <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="47"/>
-      <c r="B158" s="47"/>
+      <c r="A158" s="51"/>
+      <c r="B158" s="51"/>
       <c r="C158" s="19">
         <v>43926</v>
       </c>
@@ -4441,8 +4441,8 @@
       <c r="J158" s="27"/>
     </row>
     <row r="159" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="47"/>
-      <c r="B159" s="47"/>
+      <c r="A159" s="51"/>
+      <c r="B159" s="51"/>
       <c r="C159" s="19">
         <v>43928</v>
       </c>
@@ -4466,8 +4466,8 @@
       <c r="J159" s="27"/>
     </row>
     <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="47"/>
-      <c r="B160" s="47"/>
+      <c r="A160" s="51"/>
+      <c r="B160" s="51"/>
       <c r="C160" s="19">
         <v>43930</v>
       </c>
@@ -4489,8 +4489,8 @@
       <c r="J160" s="27"/>
     </row>
     <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="47"/>
-      <c r="B161" s="47"/>
+      <c r="A161" s="51"/>
+      <c r="B161" s="51"/>
       <c r="C161" s="19">
         <v>43932</v>
       </c>
@@ -4512,8 +4512,8 @@
       <c r="J161" s="27"/>
     </row>
     <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="47"/>
-      <c r="B162" s="47"/>
+      <c r="A162" s="51"/>
+      <c r="B162" s="51"/>
       <c r="C162" s="19">
         <v>43934</v>
       </c>
@@ -4537,8 +4537,8 @@
       <c r="J162" s="27"/>
     </row>
     <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="47"/>
-      <c r="B163" s="47"/>
+      <c r="A163" s="51"/>
+      <c r="B163" s="51"/>
       <c r="C163" s="19">
         <v>43936</v>
       </c>
@@ -4560,8 +4560,8 @@
       <c r="J163" s="34"/>
     </row>
     <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="47"/>
-      <c r="B164" s="47"/>
+      <c r="A164" s="51"/>
+      <c r="B164" s="51"/>
       <c r="C164" s="19">
         <v>43938</v>
       </c>
@@ -4583,8 +4583,8 @@
       <c r="J164" s="34"/>
     </row>
     <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="47"/>
-      <c r="B165" s="47"/>
+      <c r="A165" s="51"/>
+      <c r="B165" s="51"/>
       <c r="C165" s="19">
         <v>43940</v>
       </c>
@@ -4606,8 +4606,8 @@
       <c r="J165" s="34"/>
     </row>
     <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="47"/>
-      <c r="B166" s="47"/>
+      <c r="A166" s="51"/>
+      <c r="B166" s="51"/>
       <c r="C166" s="19">
         <v>43942</v>
       </c>
@@ -4631,8 +4631,8 @@
       <c r="J166" s="34"/>
     </row>
     <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="47"/>
-      <c r="B167" s="47"/>
+      <c r="A167" s="51"/>
+      <c r="B167" s="51"/>
       <c r="C167" s="19">
         <v>43944</v>
       </c>
@@ -4654,8 +4654,8 @@
       <c r="J167" s="34"/>
     </row>
     <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="47"/>
-      <c r="B168" s="47"/>
+      <c r="A168" s="51"/>
+      <c r="B168" s="51"/>
       <c r="C168" s="19">
         <v>43946</v>
       </c>
@@ -4675,8 +4675,8 @@
       <c r="J168" s="34"/>
     </row>
     <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="47"/>
-      <c r="B169" s="47"/>
+      <c r="A169" s="51"/>
+      <c r="B169" s="51"/>
       <c r="C169" s="19">
         <v>43948</v>
       </c>
@@ -4696,8 +4696,8 @@
       <c r="J169" s="34"/>
     </row>
     <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="47"/>
-      <c r="B170" s="48"/>
+      <c r="A170" s="51"/>
+      <c r="B170" s="47"/>
       <c r="C170" s="19">
         <v>43950</v>
       </c>
@@ -4717,10 +4717,10 @@
       <c r="J170" s="34"/>
     </row>
     <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="55">
+      <c r="A171" s="50">
         <v>13</v>
       </c>
-      <c r="B171" s="56" t="s">
+      <c r="B171" s="61" t="s">
         <v>35</v>
       </c>
       <c r="C171" s="3">
@@ -4742,8 +4742,8 @@
       <c r="I171" s="8"/>
     </row>
     <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="47"/>
-      <c r="B172" s="47"/>
+      <c r="A172" s="51"/>
+      <c r="B172" s="51"/>
       <c r="C172" s="3">
         <v>43926</v>
       </c>
@@ -4764,8 +4764,8 @@
       <c r="I172" s="11"/>
     </row>
     <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="47"/>
-      <c r="B173" s="47"/>
+      <c r="A173" s="51"/>
+      <c r="B173" s="51"/>
       <c r="C173" s="3">
         <v>43928</v>
       </c>
@@ -4786,8 +4786,8 @@
       <c r="I173" s="11"/>
     </row>
     <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="47"/>
-      <c r="B174" s="47"/>
+      <c r="A174" s="51"/>
+      <c r="B174" s="51"/>
       <c r="C174" s="3">
         <v>43930</v>
       </c>
@@ -4808,8 +4808,8 @@
       <c r="I174" s="11"/>
     </row>
     <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="47"/>
-      <c r="B175" s="47"/>
+      <c r="A175" s="51"/>
+      <c r="B175" s="51"/>
       <c r="C175" s="3">
         <v>43932</v>
       </c>
@@ -4830,8 +4830,8 @@
       <c r="I175" s="11"/>
     </row>
     <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="47"/>
-      <c r="B176" s="47"/>
+      <c r="A176" s="51"/>
+      <c r="B176" s="51"/>
       <c r="C176" s="3">
         <v>43934</v>
       </c>
@@ -4852,8 +4852,8 @@
       <c r="I176" s="11"/>
     </row>
     <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="47"/>
-      <c r="B177" s="47"/>
+      <c r="A177" s="51"/>
+      <c r="B177" s="51"/>
       <c r="C177" s="3">
         <v>43936</v>
       </c>
@@ -4874,8 +4874,8 @@
       <c r="I177" s="11"/>
     </row>
     <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="47"/>
-      <c r="B178" s="47"/>
+      <c r="A178" s="51"/>
+      <c r="B178" s="51"/>
       <c r="C178" s="3">
         <v>43938</v>
       </c>
@@ -4896,8 +4896,8 @@
       <c r="I178" s="11"/>
     </row>
     <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="47"/>
-      <c r="B179" s="47"/>
+      <c r="A179" s="51"/>
+      <c r="B179" s="51"/>
       <c r="C179" s="3">
         <v>43940</v>
       </c>
@@ -4918,8 +4918,8 @@
       <c r="I179" s="16"/>
     </row>
     <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="47"/>
-      <c r="B180" s="47"/>
+      <c r="A180" s="51"/>
+      <c r="B180" s="51"/>
       <c r="C180" s="3">
         <v>43942</v>
       </c>
@@ -4940,8 +4940,8 @@
       <c r="I180" s="15"/>
     </row>
     <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="47"/>
-      <c r="B181" s="47"/>
+      <c r="A181" s="51"/>
+      <c r="B181" s="51"/>
       <c r="C181" s="3">
         <v>43944</v>
       </c>
@@ -4962,8 +4962,8 @@
       <c r="I181" s="15"/>
     </row>
     <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="47"/>
-      <c r="B182" s="47"/>
+      <c r="A182" s="51"/>
+      <c r="B182" s="51"/>
       <c r="C182" s="3">
         <v>43946</v>
       </c>
@@ -4982,8 +4982,8 @@
       <c r="I182" s="15"/>
     </row>
     <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="47"/>
-      <c r="B183" s="47"/>
+      <c r="A183" s="51"/>
+      <c r="B183" s="51"/>
       <c r="C183" s="3">
         <v>43948</v>
       </c>
@@ -5002,8 +5002,8 @@
       <c r="I183" s="15"/>
     </row>
     <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="47"/>
-      <c r="B184" s="48"/>
+      <c r="A184" s="51"/>
+      <c r="B184" s="47"/>
       <c r="C184" s="3">
         <v>43950</v>
       </c>
@@ -5022,10 +5022,10 @@
       <c r="I184" s="15"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="57">
+      <c r="A185" s="55">
         <v>14</v>
       </c>
-      <c r="B185" s="54" t="s">
+      <c r="B185" s="60" t="s">
         <v>53</v>
       </c>
       <c r="C185" s="19">
@@ -5048,8 +5048,8 @@
       <c r="J185" s="27"/>
     </row>
     <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="47"/>
-      <c r="B186" s="47"/>
+      <c r="A186" s="51"/>
+      <c r="B186" s="51"/>
       <c r="C186" s="19">
         <v>43926</v>
       </c>
@@ -5071,8 +5071,8 @@
       <c r="J186" s="27"/>
     </row>
     <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="47"/>
-      <c r="B187" s="47"/>
+      <c r="A187" s="51"/>
+      <c r="B187" s="51"/>
       <c r="C187" s="19">
         <v>43928</v>
       </c>
@@ -5094,8 +5094,8 @@
       <c r="J187" s="27"/>
     </row>
     <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="47"/>
-      <c r="B188" s="47"/>
+      <c r="A188" s="51"/>
+      <c r="B188" s="51"/>
       <c r="C188" s="19">
         <v>43930</v>
       </c>
@@ -5117,8 +5117,8 @@
       <c r="J188" s="27"/>
     </row>
     <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="47"/>
-      <c r="B189" s="47"/>
+      <c r="A189" s="51"/>
+      <c r="B189" s="51"/>
       <c r="C189" s="19">
         <v>43932</v>
       </c>
@@ -5140,8 +5140,8 @@
       <c r="J189" s="27"/>
     </row>
     <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="47"/>
-      <c r="B190" s="47"/>
+      <c r="A190" s="51"/>
+      <c r="B190" s="51"/>
       <c r="C190" s="19">
         <v>43934</v>
       </c>
@@ -5163,8 +5163,8 @@
       <c r="J190" s="27"/>
     </row>
     <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="47"/>
-      <c r="B191" s="47"/>
+      <c r="A191" s="51"/>
+      <c r="B191" s="51"/>
       <c r="C191" s="19">
         <v>43936</v>
       </c>
@@ -5186,8 +5186,8 @@
       <c r="J191" s="34"/>
     </row>
     <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="47"/>
-      <c r="B192" s="47"/>
+      <c r="A192" s="51"/>
+      <c r="B192" s="51"/>
       <c r="C192" s="19">
         <v>43938</v>
       </c>
@@ -5209,8 +5209,8 @@
       <c r="J192" s="34"/>
     </row>
     <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="47"/>
-      <c r="B193" s="47"/>
+      <c r="A193" s="51"/>
+      <c r="B193" s="51"/>
       <c r="C193" s="19">
         <v>43940</v>
       </c>
@@ -5232,8 +5232,8 @@
       <c r="J193" s="34"/>
     </row>
     <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="47"/>
-      <c r="B194" s="47"/>
+      <c r="A194" s="51"/>
+      <c r="B194" s="51"/>
       <c r="C194" s="19">
         <v>43942</v>
       </c>
@@ -5253,8 +5253,8 @@
       <c r="J194" s="34"/>
     </row>
     <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="47"/>
-      <c r="B195" s="47"/>
+      <c r="A195" s="51"/>
+      <c r="B195" s="51"/>
       <c r="C195" s="19">
         <v>43944</v>
       </c>
@@ -5274,8 +5274,8 @@
       <c r="J195" s="34"/>
     </row>
     <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="47"/>
-      <c r="B196" s="47"/>
+      <c r="A196" s="51"/>
+      <c r="B196" s="51"/>
       <c r="C196" s="19">
         <v>43946</v>
       </c>
@@ -5295,8 +5295,8 @@
       <c r="J196" s="34"/>
     </row>
     <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="47"/>
-      <c r="B197" s="47"/>
+      <c r="A197" s="51"/>
+      <c r="B197" s="51"/>
       <c r="C197" s="19">
         <v>43948</v>
       </c>
@@ -5316,8 +5316,8 @@
       <c r="J197" s="34"/>
     </row>
     <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="47"/>
-      <c r="B198" s="48"/>
+      <c r="A198" s="51"/>
+      <c r="B198" s="47"/>
       <c r="C198" s="19">
         <v>43950</v>
       </c>
@@ -5337,10 +5337,10 @@
       <c r="J198" s="34"/>
     </row>
     <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="55">
+      <c r="A199" s="50">
         <v>15</v>
       </c>
-      <c r="B199" s="53" t="s">
+      <c r="B199" s="59" t="s">
         <v>37</v>
       </c>
       <c r="C199" s="3">
@@ -5362,8 +5362,8 @@
       <c r="I199" s="8"/>
     </row>
     <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="47"/>
-      <c r="B200" s="50"/>
+      <c r="A200" s="51"/>
+      <c r="B200" s="53"/>
       <c r="C200" s="3">
         <v>43926</v>
       </c>
@@ -5384,8 +5384,8 @@
       <c r="I200" s="11"/>
     </row>
     <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="47"/>
-      <c r="B201" s="50"/>
+      <c r="A201" s="51"/>
+      <c r="B201" s="53"/>
       <c r="C201" s="3">
         <v>43928</v>
       </c>
@@ -5406,8 +5406,8 @@
       <c r="I201" s="11"/>
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="47"/>
-      <c r="B202" s="50"/>
+      <c r="A202" s="51"/>
+      <c r="B202" s="53"/>
       <c r="C202" s="3">
         <v>43930</v>
       </c>
@@ -5428,8 +5428,8 @@
       <c r="I202" s="11"/>
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="47"/>
-      <c r="B203" s="50"/>
+      <c r="A203" s="51"/>
+      <c r="B203" s="53"/>
       <c r="C203" s="3">
         <v>43932</v>
       </c>
@@ -5450,8 +5450,8 @@
       <c r="I203" s="11"/>
     </row>
     <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="47"/>
-      <c r="B204" s="50"/>
+      <c r="A204" s="51"/>
+      <c r="B204" s="53"/>
       <c r="C204" s="3">
         <v>43934</v>
       </c>
@@ -5472,8 +5472,8 @@
       <c r="I204" s="11"/>
     </row>
     <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="47"/>
-      <c r="B205" s="50"/>
+      <c r="A205" s="51"/>
+      <c r="B205" s="53"/>
       <c r="C205" s="3">
         <v>43936</v>
       </c>
@@ -5494,8 +5494,8 @@
       <c r="I205" s="11"/>
     </row>
     <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="47"/>
-      <c r="B206" s="50"/>
+      <c r="A206" s="51"/>
+      <c r="B206" s="53"/>
       <c r="C206" s="3">
         <v>43938</v>
       </c>
@@ -5516,8 +5516,8 @@
       <c r="I206" s="11"/>
     </row>
     <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="47"/>
-      <c r="B207" s="50"/>
+      <c r="A207" s="51"/>
+      <c r="B207" s="53"/>
       <c r="C207" s="3">
         <v>43940</v>
       </c>
@@ -5538,8 +5538,8 @@
       <c r="I207" s="16"/>
     </row>
     <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="47"/>
-      <c r="B208" s="50"/>
+      <c r="A208" s="51"/>
+      <c r="B208" s="53"/>
       <c r="C208" s="3">
         <v>43942</v>
       </c>
@@ -5558,8 +5558,8 @@
       <c r="I208" s="15"/>
     </row>
     <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="47"/>
-      <c r="B209" s="50"/>
+      <c r="A209" s="51"/>
+      <c r="B209" s="53"/>
       <c r="C209" s="3">
         <v>43944</v>
       </c>
@@ -5578,8 +5578,8 @@
       <c r="I209" s="15"/>
     </row>
     <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="47"/>
-      <c r="B210" s="50"/>
+      <c r="A210" s="51"/>
+      <c r="B210" s="53"/>
       <c r="C210" s="3">
         <v>43946</v>
       </c>
@@ -5598,8 +5598,8 @@
       <c r="I210" s="15"/>
     </row>
     <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="47"/>
-      <c r="B211" s="50"/>
+      <c r="A211" s="51"/>
+      <c r="B211" s="53"/>
       <c r="C211" s="3">
         <v>43948</v>
       </c>
@@ -5618,8 +5618,8 @@
       <c r="I211" s="15"/>
     </row>
     <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="47"/>
-      <c r="B212" s="51"/>
+      <c r="A212" s="51"/>
+      <c r="B212" s="54"/>
       <c r="C212" s="3">
         <v>43950</v>
       </c>
@@ -5638,10 +5638,10 @@
       <c r="I212" s="15"/>
     </row>
     <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="46">
+      <c r="A213" s="62">
         <v>16</v>
       </c>
-      <c r="B213" s="49" t="s">
+      <c r="B213" s="64" t="s">
         <v>38</v>
       </c>
       <c r="C213" s="19">
@@ -5666,8 +5666,8 @@
       <c r="J213" s="27"/>
     </row>
     <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="47"/>
-      <c r="B214" s="50"/>
+      <c r="A214" s="51"/>
+      <c r="B214" s="53"/>
       <c r="C214" s="19">
         <v>43926</v>
       </c>
@@ -5689,8 +5689,8 @@
       <c r="J214" s="27"/>
     </row>
     <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="47"/>
-      <c r="B215" s="50"/>
+      <c r="A215" s="51"/>
+      <c r="B215" s="53"/>
       <c r="C215" s="19">
         <v>43928</v>
       </c>
@@ -5712,8 +5712,8 @@
       <c r="J215" s="27"/>
     </row>
     <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="47"/>
-      <c r="B216" s="50"/>
+      <c r="A216" s="51"/>
+      <c r="B216" s="53"/>
       <c r="C216" s="19">
         <v>43930</v>
       </c>
@@ -5735,8 +5735,8 @@
       <c r="J216" s="27"/>
     </row>
     <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="47"/>
-      <c r="B217" s="50"/>
+      <c r="A217" s="51"/>
+      <c r="B217" s="53"/>
       <c r="C217" s="19">
         <v>43932</v>
       </c>
@@ -5758,8 +5758,8 @@
       <c r="J217" s="27"/>
     </row>
     <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="47"/>
-      <c r="B218" s="50"/>
+      <c r="A218" s="51"/>
+      <c r="B218" s="53"/>
       <c r="C218" s="19">
         <v>43934</v>
       </c>
@@ -5781,8 +5781,8 @@
       <c r="J218" s="27"/>
     </row>
     <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="47"/>
-      <c r="B219" s="50"/>
+      <c r="A219" s="51"/>
+      <c r="B219" s="53"/>
       <c r="C219" s="19">
         <v>43936</v>
       </c>
@@ -5804,8 +5804,8 @@
       <c r="J219" s="34"/>
     </row>
     <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="47"/>
-      <c r="B220" s="50"/>
+      <c r="A220" s="51"/>
+      <c r="B220" s="53"/>
       <c r="C220" s="19">
         <v>43938</v>
       </c>
@@ -5827,8 +5827,8 @@
       <c r="J220" s="34"/>
     </row>
     <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="47"/>
-      <c r="B221" s="50"/>
+      <c r="A221" s="51"/>
+      <c r="B221" s="53"/>
       <c r="C221" s="19">
         <v>43940</v>
       </c>
@@ -5850,8 +5850,8 @@
       <c r="J221" s="34"/>
     </row>
     <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="47"/>
-      <c r="B222" s="50"/>
+      <c r="A222" s="51"/>
+      <c r="B222" s="53"/>
       <c r="C222" s="19">
         <v>43942</v>
       </c>
@@ -5873,8 +5873,8 @@
       <c r="J222" s="34"/>
     </row>
     <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="47"/>
-      <c r="B223" s="50"/>
+      <c r="A223" s="51"/>
+      <c r="B223" s="53"/>
       <c r="C223" s="19">
         <v>43944</v>
       </c>
@@ -5896,8 +5896,8 @@
       <c r="J223" s="34"/>
     </row>
     <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="47"/>
-      <c r="B224" s="50"/>
+      <c r="A224" s="51"/>
+      <c r="B224" s="53"/>
       <c r="C224" s="19">
         <v>43946</v>
       </c>
@@ -5917,8 +5917,8 @@
       <c r="J224" s="34"/>
     </row>
     <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="47"/>
-      <c r="B225" s="50"/>
+      <c r="A225" s="51"/>
+      <c r="B225" s="53"/>
       <c r="C225" s="19">
         <v>43948</v>
       </c>
@@ -5938,8 +5938,8 @@
       <c r="J225" s="34"/>
     </row>
     <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="47"/>
-      <c r="B226" s="51"/>
+      <c r="A226" s="51"/>
+      <c r="B226" s="54"/>
       <c r="C226" s="19">
         <v>43950</v>
       </c>
@@ -5959,10 +5959,10 @@
       <c r="J226" s="34"/>
     </row>
     <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="52">
+      <c r="A227" s="63">
         <v>17</v>
       </c>
-      <c r="B227" s="56" t="s">
+      <c r="B227" s="61" t="s">
         <v>39</v>
       </c>
       <c r="C227" s="3">
@@ -5986,8 +5986,8 @@
       <c r="I227" s="8"/>
     </row>
     <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="47"/>
-      <c r="B228" s="47"/>
+      <c r="A228" s="51"/>
+      <c r="B228" s="51"/>
       <c r="C228" s="3">
         <v>43926</v>
       </c>
@@ -6008,8 +6008,8 @@
       <c r="I228" s="11"/>
     </row>
     <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="47"/>
-      <c r="B229" s="47"/>
+      <c r="A229" s="51"/>
+      <c r="B229" s="51"/>
       <c r="C229" s="3">
         <v>43928</v>
       </c>
@@ -6030,8 +6030,8 @@
       <c r="I229" s="11"/>
     </row>
     <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="47"/>
-      <c r="B230" s="47"/>
+      <c r="A230" s="51"/>
+      <c r="B230" s="51"/>
       <c r="C230" s="3">
         <v>43930</v>
       </c>
@@ -6052,8 +6052,8 @@
       <c r="I230" s="11"/>
     </row>
     <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="47"/>
-      <c r="B231" s="47"/>
+      <c r="A231" s="51"/>
+      <c r="B231" s="51"/>
       <c r="C231" s="3">
         <v>43932</v>
       </c>
@@ -6074,8 +6074,8 @@
       <c r="I231" s="11"/>
     </row>
     <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="47"/>
-      <c r="B232" s="47"/>
+      <c r="A232" s="51"/>
+      <c r="B232" s="51"/>
       <c r="C232" s="3">
         <v>43934</v>
       </c>
@@ -6096,8 +6096,8 @@
       <c r="I232" s="11"/>
     </row>
     <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="47"/>
-      <c r="B233" s="47"/>
+      <c r="A233" s="51"/>
+      <c r="B233" s="51"/>
       <c r="C233" s="3">
         <v>43936</v>
       </c>
@@ -6118,8 +6118,8 @@
       <c r="I233" s="11"/>
     </row>
     <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="47"/>
-      <c r="B234" s="47"/>
+      <c r="A234" s="51"/>
+      <c r="B234" s="51"/>
       <c r="C234" s="3">
         <v>43938</v>
       </c>
@@ -6140,8 +6140,8 @@
       <c r="I234" s="11"/>
     </row>
     <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="47"/>
-      <c r="B235" s="47"/>
+      <c r="A235" s="51"/>
+      <c r="B235" s="51"/>
       <c r="C235" s="3">
         <v>43940</v>
       </c>
@@ -6162,8 +6162,8 @@
       <c r="I235" s="16"/>
     </row>
     <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="47"/>
-      <c r="B236" s="47"/>
+      <c r="A236" s="51"/>
+      <c r="B236" s="51"/>
       <c r="C236" s="3">
         <v>43942</v>
       </c>
@@ -6184,8 +6184,8 @@
       <c r="I236" s="15"/>
     </row>
     <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="47"/>
-      <c r="B237" s="47"/>
+      <c r="A237" s="51"/>
+      <c r="B237" s="51"/>
       <c r="C237" s="3">
         <v>43944</v>
       </c>
@@ -6206,8 +6206,8 @@
       <c r="I237" s="15"/>
     </row>
     <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="47"/>
-      <c r="B238" s="47"/>
+      <c r="A238" s="51"/>
+      <c r="B238" s="51"/>
       <c r="C238" s="3">
         <v>43946</v>
       </c>
@@ -6228,8 +6228,8 @@
       <c r="I238" s="15"/>
     </row>
     <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="47"/>
-      <c r="B239" s="47"/>
+      <c r="A239" s="51"/>
+      <c r="B239" s="51"/>
       <c r="C239" s="3">
         <v>43948</v>
       </c>
@@ -6250,8 +6250,8 @@
       <c r="I239" s="15"/>
     </row>
     <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="47"/>
-      <c r="B240" s="48"/>
+      <c r="A240" s="51"/>
+      <c r="B240" s="47"/>
       <c r="C240" s="3">
         <v>43950</v>
       </c>
@@ -6270,10 +6270,10 @@
       <c r="I240" s="15"/>
     </row>
     <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="46">
+      <c r="A241" s="62">
         <v>18</v>
       </c>
-      <c r="B241" s="49" t="s">
+      <c r="B241" s="64" t="s">
         <v>41</v>
       </c>
       <c r="C241" s="19">
@@ -6296,8 +6296,8 @@
       <c r="J241" s="27"/>
     </row>
     <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="47"/>
-      <c r="B242" s="50"/>
+      <c r="A242" s="51"/>
+      <c r="B242" s="53"/>
       <c r="C242" s="19">
         <v>43926</v>
       </c>
@@ -6319,8 +6319,8 @@
       <c r="J242" s="27"/>
     </row>
     <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="47"/>
-      <c r="B243" s="50"/>
+      <c r="A243" s="51"/>
+      <c r="B243" s="53"/>
       <c r="C243" s="19">
         <v>43928</v>
       </c>
@@ -6342,8 +6342,8 @@
       <c r="J243" s="27"/>
     </row>
     <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="47"/>
-      <c r="B244" s="50"/>
+      <c r="A244" s="51"/>
+      <c r="B244" s="53"/>
       <c r="C244" s="19">
         <v>43930</v>
       </c>
@@ -6365,8 +6365,8 @@
       <c r="J244" s="27"/>
     </row>
     <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="47"/>
-      <c r="B245" s="50"/>
+      <c r="A245" s="51"/>
+      <c r="B245" s="53"/>
       <c r="C245" s="19">
         <v>43932</v>
       </c>
@@ -6388,8 +6388,8 @@
       <c r="J245" s="27"/>
     </row>
     <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="47"/>
-      <c r="B246" s="50"/>
+      <c r="A246" s="51"/>
+      <c r="B246" s="53"/>
       <c r="C246" s="19">
         <v>43934</v>
       </c>
@@ -6411,8 +6411,8 @@
       <c r="J246" s="27"/>
     </row>
     <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="47"/>
-      <c r="B247" s="50"/>
+      <c r="A247" s="51"/>
+      <c r="B247" s="53"/>
       <c r="C247" s="19">
         <v>43936</v>
       </c>
@@ -6434,8 +6434,8 @@
       <c r="J247" s="34"/>
     </row>
     <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="47"/>
-      <c r="B248" s="50"/>
+      <c r="A248" s="51"/>
+      <c r="B248" s="53"/>
       <c r="C248" s="19">
         <v>43938</v>
       </c>
@@ -6457,8 +6457,8 @@
       <c r="J248" s="34"/>
     </row>
     <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="47"/>
-      <c r="B249" s="50"/>
+      <c r="A249" s="51"/>
+      <c r="B249" s="53"/>
       <c r="C249" s="19">
         <v>43940</v>
       </c>
@@ -6480,8 +6480,8 @@
       <c r="J249" s="34"/>
     </row>
     <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="47"/>
-      <c r="B250" s="50"/>
+      <c r="A250" s="51"/>
+      <c r="B250" s="53"/>
       <c r="C250" s="19">
         <v>43942</v>
       </c>
@@ -6503,8 +6503,8 @@
       <c r="J250" s="34"/>
     </row>
     <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="47"/>
-      <c r="B251" s="50"/>
+      <c r="A251" s="51"/>
+      <c r="B251" s="53"/>
       <c r="C251" s="19">
         <v>43944</v>
       </c>
@@ -6526,8 +6526,8 @@
       <c r="J251" s="34"/>
     </row>
     <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="47"/>
-      <c r="B252" s="50"/>
+      <c r="A252" s="51"/>
+      <c r="B252" s="53"/>
       <c r="C252" s="19">
         <v>43946</v>
       </c>
@@ -6549,8 +6549,8 @@
       <c r="J252" s="34"/>
     </row>
     <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="47"/>
-      <c r="B253" s="50"/>
+      <c r="A253" s="51"/>
+      <c r="B253" s="53"/>
       <c r="C253" s="19">
         <v>43948</v>
       </c>
@@ -6572,8 +6572,8 @@
       <c r="J253" s="34"/>
     </row>
     <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="47"/>
-      <c r="B254" s="51"/>
+      <c r="A254" s="51"/>
+      <c r="B254" s="54"/>
       <c r="C254" s="19">
         <v>43950</v>
       </c>
@@ -6593,10 +6593,10 @@
       <c r="J254" s="34"/>
     </row>
     <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="52">
+      <c r="A255" s="63">
         <v>19</v>
       </c>
-      <c r="B255" s="53" t="s">
+      <c r="B255" s="59" t="s">
         <v>29</v>
       </c>
       <c r="C255" s="3">
@@ -6618,8 +6618,8 @@
       <c r="I255" s="8"/>
     </row>
     <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="47"/>
-      <c r="B256" s="50"/>
+      <c r="A256" s="51"/>
+      <c r="B256" s="53"/>
       <c r="C256" s="3">
         <v>43926</v>
       </c>
@@ -6640,8 +6640,8 @@
       <c r="I256" s="11"/>
     </row>
     <row r="257" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="47"/>
-      <c r="B257" s="50"/>
+      <c r="A257" s="51"/>
+      <c r="B257" s="53"/>
       <c r="C257" s="3">
         <v>43928</v>
       </c>
@@ -6662,8 +6662,8 @@
       <c r="I257" s="11"/>
     </row>
     <row r="258" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="47"/>
-      <c r="B258" s="50"/>
+      <c r="A258" s="51"/>
+      <c r="B258" s="53"/>
       <c r="C258" s="3">
         <v>43930</v>
       </c>
@@ -6684,8 +6684,8 @@
       <c r="I258" s="11"/>
     </row>
     <row r="259" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="47"/>
-      <c r="B259" s="50"/>
+      <c r="A259" s="51"/>
+      <c r="B259" s="53"/>
       <c r="C259" s="3">
         <v>43932</v>
       </c>
@@ -6706,8 +6706,8 @@
       <c r="I259" s="11"/>
     </row>
     <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="47"/>
-      <c r="B260" s="50"/>
+      <c r="A260" s="51"/>
+      <c r="B260" s="53"/>
       <c r="C260" s="3">
         <v>43934</v>
       </c>
@@ -6728,8 +6728,8 @@
       <c r="I260" s="11"/>
     </row>
     <row r="261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="47"/>
-      <c r="B261" s="50"/>
+      <c r="A261" s="51"/>
+      <c r="B261" s="53"/>
       <c r="C261" s="3">
         <v>43936</v>
       </c>
@@ -6750,8 +6750,8 @@
       <c r="I261" s="11"/>
     </row>
     <row r="262" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="47"/>
-      <c r="B262" s="50"/>
+      <c r="A262" s="51"/>
+      <c r="B262" s="53"/>
       <c r="C262" s="3">
         <v>43938</v>
       </c>
@@ -6772,8 +6772,8 @@
       <c r="I262" s="11"/>
     </row>
     <row r="263" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="47"/>
-      <c r="B263" s="50"/>
+      <c r="A263" s="51"/>
+      <c r="B263" s="53"/>
       <c r="C263" s="3">
         <v>43940</v>
       </c>
@@ -6794,8 +6794,8 @@
       <c r="I263" s="16"/>
     </row>
     <row r="264" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="47"/>
-      <c r="B264" s="50"/>
+      <c r="A264" s="51"/>
+      <c r="B264" s="53"/>
       <c r="C264" s="3">
         <v>43942</v>
       </c>
@@ -6816,8 +6816,8 @@
       <c r="I264" s="15"/>
     </row>
     <row r="265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="47"/>
-      <c r="B265" s="50"/>
+      <c r="A265" s="51"/>
+      <c r="B265" s="53"/>
       <c r="C265" s="3">
         <v>43944</v>
       </c>
@@ -6838,8 +6838,8 @@
       <c r="I265" s="15"/>
     </row>
     <row r="266" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="47"/>
-      <c r="B266" s="50"/>
+      <c r="A266" s="51"/>
+      <c r="B266" s="53"/>
       <c r="C266" s="3">
         <v>43946</v>
       </c>
@@ -6860,8 +6860,8 @@
       <c r="I266" s="15"/>
     </row>
     <row r="267" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="47"/>
-      <c r="B267" s="50"/>
+      <c r="A267" s="51"/>
+      <c r="B267" s="53"/>
       <c r="C267" s="3">
         <v>43948</v>
       </c>
@@ -6880,8 +6880,8 @@
       <c r="I267" s="15"/>
     </row>
     <row r="268" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="47"/>
-      <c r="B268" s="51"/>
+      <c r="A268" s="51"/>
+      <c r="B268" s="54"/>
       <c r="C268" s="3">
         <v>43950</v>
       </c>
@@ -6900,10 +6900,10 @@
       <c r="I268" s="15"/>
     </row>
     <row r="269" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="46">
+      <c r="A269" s="62">
         <v>20</v>
       </c>
-      <c r="B269" s="49" t="s">
+      <c r="B269" s="64" t="s">
         <v>43</v>
       </c>
       <c r="C269" s="19">
@@ -6928,8 +6928,8 @@
       <c r="J269" s="27"/>
     </row>
     <row r="270" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="47"/>
-      <c r="B270" s="50"/>
+      <c r="A270" s="51"/>
+      <c r="B270" s="53"/>
       <c r="C270" s="19">
         <v>43926</v>
       </c>
@@ -6951,8 +6951,8 @@
       <c r="J270" s="27"/>
     </row>
     <row r="271" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="47"/>
-      <c r="B271" s="50"/>
+      <c r="A271" s="51"/>
+      <c r="B271" s="53"/>
       <c r="C271" s="19">
         <v>43928</v>
       </c>
@@ -6974,8 +6974,8 @@
       <c r="J271" s="27"/>
     </row>
     <row r="272" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="47"/>
-      <c r="B272" s="50"/>
+      <c r="A272" s="51"/>
+      <c r="B272" s="53"/>
       <c r="C272" s="19">
         <v>43930</v>
       </c>
@@ -6997,8 +6997,8 @@
       <c r="J272" s="27"/>
     </row>
     <row r="273" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="47"/>
-      <c r="B273" s="50"/>
+      <c r="A273" s="51"/>
+      <c r="B273" s="53"/>
       <c r="C273" s="19">
         <v>43932</v>
       </c>
@@ -7020,8 +7020,8 @@
       <c r="J273" s="27"/>
     </row>
     <row r="274" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="47"/>
-      <c r="B274" s="50"/>
+      <c r="A274" s="51"/>
+      <c r="B274" s="53"/>
       <c r="C274" s="19">
         <v>43934</v>
       </c>
@@ -7043,8 +7043,8 @@
       <c r="J274" s="27"/>
     </row>
     <row r="275" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="47"/>
-      <c r="B275" s="50"/>
+      <c r="A275" s="51"/>
+      <c r="B275" s="53"/>
       <c r="C275" s="19">
         <v>43936</v>
       </c>
@@ -7066,8 +7066,8 @@
       <c r="J275" s="34"/>
     </row>
     <row r="276" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="47"/>
-      <c r="B276" s="50"/>
+      <c r="A276" s="51"/>
+      <c r="B276" s="53"/>
       <c r="C276" s="19">
         <v>43938</v>
       </c>
@@ -7089,8 +7089,8 @@
       <c r="J276" s="34"/>
     </row>
     <row r="277" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="47"/>
-      <c r="B277" s="50"/>
+      <c r="A277" s="51"/>
+      <c r="B277" s="53"/>
       <c r="C277" s="19">
         <v>43940</v>
       </c>
@@ -7112,8 +7112,8 @@
       <c r="J277" s="34"/>
     </row>
     <row r="278" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="47"/>
-      <c r="B278" s="50"/>
+      <c r="A278" s="51"/>
+      <c r="B278" s="53"/>
       <c r="C278" s="19">
         <v>43942</v>
       </c>
@@ -7135,8 +7135,8 @@
       <c r="J278" s="34"/>
     </row>
     <row r="279" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="47"/>
-      <c r="B279" s="50"/>
+      <c r="A279" s="51"/>
+      <c r="B279" s="53"/>
       <c r="C279" s="19">
         <v>43944</v>
       </c>
@@ -7158,8 +7158,8 @@
       <c r="J279" s="34"/>
     </row>
     <row r="280" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="47"/>
-      <c r="B280" s="50"/>
+      <c r="A280" s="51"/>
+      <c r="B280" s="53"/>
       <c r="C280" s="19">
         <v>43946</v>
       </c>
@@ -7181,8 +7181,8 @@
       <c r="J280" s="34"/>
     </row>
     <row r="281" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="47"/>
-      <c r="B281" s="50"/>
+      <c r="A281" s="51"/>
+      <c r="B281" s="53"/>
       <c r="C281" s="19">
         <v>43948</v>
       </c>
@@ -7204,8 +7204,8 @@
       <c r="J281" s="34"/>
     </row>
     <row r="282" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="47"/>
-      <c r="B282" s="51"/>
+      <c r="A282" s="51"/>
+      <c r="B282" s="54"/>
       <c r="C282" s="19">
         <v>43950</v>
       </c>
@@ -7225,10 +7225,10 @@
       <c r="J282" s="34"/>
     </row>
     <row r="283" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="52">
+      <c r="A283" s="63">
         <v>21</v>
       </c>
-      <c r="B283" s="53" t="s">
+      <c r="B283" s="59" t="s">
         <v>44</v>
       </c>
       <c r="C283" s="3">
@@ -7250,8 +7250,8 @@
       <c r="I283" s="8"/>
     </row>
     <row r="284" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="47"/>
-      <c r="B284" s="50"/>
+      <c r="A284" s="51"/>
+      <c r="B284" s="53"/>
       <c r="C284" s="3">
         <v>43926</v>
       </c>
@@ -7272,8 +7272,8 @@
       <c r="I284" s="11"/>
     </row>
     <row r="285" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="47"/>
-      <c r="B285" s="50"/>
+      <c r="A285" s="51"/>
+      <c r="B285" s="53"/>
       <c r="C285" s="3">
         <v>43928</v>
       </c>
@@ -7294,8 +7294,8 @@
       <c r="I285" s="11"/>
     </row>
     <row r="286" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="47"/>
-      <c r="B286" s="50"/>
+      <c r="A286" s="51"/>
+      <c r="B286" s="53"/>
       <c r="C286" s="3">
         <v>43930</v>
       </c>
@@ -7316,8 +7316,8 @@
       <c r="I286" s="11"/>
     </row>
     <row r="287" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="47"/>
-      <c r="B287" s="50"/>
+      <c r="A287" s="51"/>
+      <c r="B287" s="53"/>
       <c r="C287" s="3">
         <v>43932</v>
       </c>
@@ -7338,8 +7338,8 @@
       <c r="I287" s="11"/>
     </row>
     <row r="288" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="47"/>
-      <c r="B288" s="50"/>
+      <c r="A288" s="51"/>
+      <c r="B288" s="53"/>
       <c r="C288" s="3">
         <v>43934</v>
       </c>
@@ -7360,8 +7360,8 @@
       <c r="I288" s="11"/>
     </row>
     <row r="289" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="47"/>
-      <c r="B289" s="50"/>
+      <c r="A289" s="51"/>
+      <c r="B289" s="53"/>
       <c r="C289" s="3">
         <v>43936</v>
       </c>
@@ -7382,8 +7382,8 @@
       <c r="I289" s="11"/>
     </row>
     <row r="290" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="47"/>
-      <c r="B290" s="50"/>
+      <c r="A290" s="51"/>
+      <c r="B290" s="53"/>
       <c r="C290" s="3">
         <v>43938</v>
       </c>
@@ -7404,8 +7404,8 @@
       <c r="I290" s="11"/>
     </row>
     <row r="291" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="47"/>
-      <c r="B291" s="50"/>
+      <c r="A291" s="51"/>
+      <c r="B291" s="53"/>
       <c r="C291" s="3">
         <v>43940</v>
       </c>
@@ -7426,8 +7426,8 @@
       <c r="I291" s="16"/>
     </row>
     <row r="292" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="47"/>
-      <c r="B292" s="50"/>
+      <c r="A292" s="51"/>
+      <c r="B292" s="53"/>
       <c r="C292" s="3">
         <v>43942</v>
       </c>
@@ -7448,8 +7448,8 @@
       <c r="I292" s="15"/>
     </row>
     <row r="293" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="47"/>
-      <c r="B293" s="50"/>
+      <c r="A293" s="51"/>
+      <c r="B293" s="53"/>
       <c r="C293" s="3">
         <v>43944</v>
       </c>
@@ -7470,8 +7470,8 @@
       <c r="I293" s="15"/>
     </row>
     <row r="294" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="47"/>
-      <c r="B294" s="50"/>
+      <c r="A294" s="51"/>
+      <c r="B294" s="53"/>
       <c r="C294" s="3">
         <v>43946</v>
       </c>
@@ -7492,8 +7492,8 @@
       <c r="I294" s="15"/>
     </row>
     <row r="295" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="47"/>
-      <c r="B295" s="50"/>
+      <c r="A295" s="51"/>
+      <c r="B295" s="53"/>
       <c r="C295" s="3">
         <v>43948</v>
       </c>
@@ -7512,8 +7512,8 @@
       <c r="I295" s="15"/>
     </row>
     <row r="296" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="47"/>
-      <c r="B296" s="51"/>
+      <c r="A296" s="51"/>
+      <c r="B296" s="54"/>
       <c r="C296" s="3">
         <v>43950</v>
       </c>
@@ -7532,10 +7532,10 @@
       <c r="I296" s="15"/>
     </row>
     <row r="297" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="46">
+      <c r="A297" s="62">
         <v>22</v>
       </c>
-      <c r="B297" s="54" t="s">
+      <c r="B297" s="60" t="s">
         <v>45</v>
       </c>
       <c r="C297" s="19">
@@ -7558,8 +7558,8 @@
       <c r="J297" s="27"/>
     </row>
     <row r="298" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="47"/>
-      <c r="B298" s="47"/>
+      <c r="A298" s="51"/>
+      <c r="B298" s="51"/>
       <c r="C298" s="19">
         <v>43926</v>
       </c>
@@ -7581,8 +7581,8 @@
       <c r="J298" s="27"/>
     </row>
     <row r="299" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="47"/>
-      <c r="B299" s="47"/>
+      <c r="A299" s="51"/>
+      <c r="B299" s="51"/>
       <c r="C299" s="19">
         <v>43928</v>
       </c>
@@ -7604,8 +7604,8 @@
       <c r="J299" s="27"/>
     </row>
     <row r="300" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="47"/>
-      <c r="B300" s="47"/>
+      <c r="A300" s="51"/>
+      <c r="B300" s="51"/>
       <c r="C300" s="19">
         <v>43930</v>
       </c>
@@ -7627,8 +7627,8 @@
       <c r="J300" s="27"/>
     </row>
     <row r="301" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="47"/>
-      <c r="B301" s="47"/>
+      <c r="A301" s="51"/>
+      <c r="B301" s="51"/>
       <c r="C301" s="19">
         <v>43932</v>
       </c>
@@ -7650,8 +7650,8 @@
       <c r="J301" s="27"/>
     </row>
     <row r="302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="47"/>
-      <c r="B302" s="47"/>
+      <c r="A302" s="51"/>
+      <c r="B302" s="51"/>
       <c r="C302" s="19">
         <v>43934</v>
       </c>
@@ -7673,8 +7673,8 @@
       <c r="J302" s="27"/>
     </row>
     <row r="303" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="47"/>
-      <c r="B303" s="47"/>
+      <c r="A303" s="51"/>
+      <c r="B303" s="51"/>
       <c r="C303" s="19">
         <v>43936</v>
       </c>
@@ -7696,8 +7696,8 @@
       <c r="J303" s="34"/>
     </row>
     <row r="304" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="47"/>
-      <c r="B304" s="47"/>
+      <c r="A304" s="51"/>
+      <c r="B304" s="51"/>
       <c r="C304" s="19">
         <v>43938</v>
       </c>
@@ -7719,8 +7719,8 @@
       <c r="J304" s="34"/>
     </row>
     <row r="305" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="47"/>
-      <c r="B305" s="47"/>
+      <c r="A305" s="51"/>
+      <c r="B305" s="51"/>
       <c r="C305" s="19">
         <v>43940</v>
       </c>
@@ -7742,8 +7742,8 @@
       <c r="J305" s="34"/>
     </row>
     <row r="306" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="47"/>
-      <c r="B306" s="47"/>
+      <c r="A306" s="51"/>
+      <c r="B306" s="51"/>
       <c r="C306" s="19">
         <v>43942</v>
       </c>
@@ -7765,8 +7765,8 @@
       <c r="J306" s="34"/>
     </row>
     <row r="307" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="47"/>
-      <c r="B307" s="47"/>
+      <c r="A307" s="51"/>
+      <c r="B307" s="51"/>
       <c r="C307" s="19">
         <v>43944</v>
       </c>
@@ -7788,8 +7788,8 @@
       <c r="J307" s="34"/>
     </row>
     <row r="308" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="47"/>
-      <c r="B308" s="47"/>
+      <c r="A308" s="51"/>
+      <c r="B308" s="51"/>
       <c r="C308" s="19">
         <v>43946</v>
       </c>
@@ -7809,8 +7809,8 @@
       <c r="J308" s="34"/>
     </row>
     <row r="309" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="47"/>
-      <c r="B309" s="47"/>
+      <c r="A309" s="51"/>
+      <c r="B309" s="51"/>
       <c r="C309" s="19">
         <v>43948</v>
       </c>
@@ -7830,8 +7830,8 @@
       <c r="J309" s="34"/>
     </row>
     <row r="310" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="47"/>
-      <c r="B310" s="48"/>
+      <c r="A310" s="51"/>
+      <c r="B310" s="47"/>
       <c r="C310" s="19">
         <v>43950</v>
       </c>
@@ -7851,10 +7851,10 @@
       <c r="J310" s="34"/>
     </row>
     <row r="311" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="52">
+      <c r="A311" s="63">
         <v>23</v>
       </c>
-      <c r="B311" s="53" t="s">
+      <c r="B311" s="59" t="s">
         <v>46</v>
       </c>
       <c r="C311" s="3">
@@ -7876,8 +7876,8 @@
       <c r="I311" s="8"/>
     </row>
     <row r="312" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="47"/>
-      <c r="B312" s="50"/>
+      <c r="A312" s="51"/>
+      <c r="B312" s="53"/>
       <c r="C312" s="3">
         <v>43926</v>
       </c>
@@ -7898,8 +7898,8 @@
       <c r="I312" s="11"/>
     </row>
     <row r="313" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="47"/>
-      <c r="B313" s="50"/>
+      <c r="A313" s="51"/>
+      <c r="B313" s="53"/>
       <c r="C313" s="3">
         <v>43928</v>
       </c>
@@ -7922,8 +7922,8 @@
       <c r="I313" s="11"/>
     </row>
     <row r="314" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="47"/>
-      <c r="B314" s="50"/>
+      <c r="A314" s="51"/>
+      <c r="B314" s="53"/>
       <c r="C314" s="3">
         <v>43930</v>
       </c>
@@ -7944,8 +7944,8 @@
       <c r="I314" s="11"/>
     </row>
     <row r="315" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="47"/>
-      <c r="B315" s="50"/>
+      <c r="A315" s="51"/>
+      <c r="B315" s="53"/>
       <c r="C315" s="3">
         <v>43932</v>
       </c>
@@ -7966,8 +7966,8 @@
       <c r="I315" s="11"/>
     </row>
     <row r="316" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="47"/>
-      <c r="B316" s="50"/>
+      <c r="A316" s="51"/>
+      <c r="B316" s="53"/>
       <c r="C316" s="3">
         <v>43934</v>
       </c>
@@ -7988,8 +7988,8 @@
       <c r="I316" s="11"/>
     </row>
     <row r="317" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="47"/>
-      <c r="B317" s="50"/>
+      <c r="A317" s="51"/>
+      <c r="B317" s="53"/>
       <c r="C317" s="3">
         <v>43936</v>
       </c>
@@ -8010,8 +8010,8 @@
       <c r="I317" s="11"/>
     </row>
     <row r="318" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="47"/>
-      <c r="B318" s="50"/>
+      <c r="A318" s="51"/>
+      <c r="B318" s="53"/>
       <c r="C318" s="3">
         <v>43938</v>
       </c>
@@ -8032,8 +8032,8 @@
       <c r="I318" s="11"/>
     </row>
     <row r="319" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="47"/>
-      <c r="B319" s="50"/>
+      <c r="A319" s="51"/>
+      <c r="B319" s="53"/>
       <c r="C319" s="3">
         <v>43940</v>
       </c>
@@ -8054,8 +8054,8 @@
       <c r="I319" s="16"/>
     </row>
     <row r="320" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="47"/>
-      <c r="B320" s="50"/>
+      <c r="A320" s="51"/>
+      <c r="B320" s="53"/>
       <c r="C320" s="3">
         <v>43942</v>
       </c>
@@ -8076,8 +8076,8 @@
       <c r="I320" s="15"/>
     </row>
     <row r="321" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="47"/>
-      <c r="B321" s="50"/>
+      <c r="A321" s="51"/>
+      <c r="B321" s="53"/>
       <c r="C321" s="3">
         <v>43944</v>
       </c>
@@ -8096,8 +8096,8 @@
       <c r="I321" s="15"/>
     </row>
     <row r="322" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="47"/>
-      <c r="B322" s="50"/>
+      <c r="A322" s="51"/>
+      <c r="B322" s="53"/>
       <c r="C322" s="3">
         <v>43946</v>
       </c>
@@ -8116,8 +8116,8 @@
       <c r="I322" s="15"/>
     </row>
     <row r="323" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="47"/>
-      <c r="B323" s="50"/>
+      <c r="A323" s="51"/>
+      <c r="B323" s="53"/>
       <c r="C323" s="3">
         <v>43948</v>
       </c>
@@ -8136,8 +8136,8 @@
       <c r="I323" s="15"/>
     </row>
     <row r="324" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="47"/>
-      <c r="B324" s="51"/>
+      <c r="A324" s="51"/>
+      <c r="B324" s="54"/>
       <c r="C324" s="3">
         <v>43950</v>
       </c>
@@ -8156,10 +8156,10 @@
       <c r="I324" s="15"/>
     </row>
     <row r="325" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="46">
+      <c r="A325" s="62">
         <v>24</v>
       </c>
-      <c r="B325" s="49" t="s">
+      <c r="B325" s="64" t="s">
         <v>47</v>
       </c>
       <c r="C325" s="19">
@@ -8184,8 +8184,8 @@
       <c r="J325" s="27"/>
     </row>
     <row r="326" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="47"/>
-      <c r="B326" s="50"/>
+      <c r="A326" s="51"/>
+      <c r="B326" s="53"/>
       <c r="C326" s="19">
         <v>43926</v>
       </c>
@@ -8207,8 +8207,8 @@
       <c r="J326" s="27"/>
     </row>
     <row r="327" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="47"/>
-      <c r="B327" s="50"/>
+      <c r="A327" s="51"/>
+      <c r="B327" s="53"/>
       <c r="C327" s="19">
         <v>43928</v>
       </c>
@@ -8230,8 +8230,8 @@
       <c r="J327" s="27"/>
     </row>
     <row r="328" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="47"/>
-      <c r="B328" s="50"/>
+      <c r="A328" s="51"/>
+      <c r="B328" s="53"/>
       <c r="C328" s="19">
         <v>43930</v>
       </c>
@@ -8253,8 +8253,8 @@
       <c r="J328" s="27"/>
     </row>
     <row r="329" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="47"/>
-      <c r="B329" s="50"/>
+      <c r="A329" s="51"/>
+      <c r="B329" s="53"/>
       <c r="C329" s="19">
         <v>43932</v>
       </c>
@@ -8276,8 +8276,8 @@
       <c r="J329" s="27"/>
     </row>
     <row r="330" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="47"/>
-      <c r="B330" s="50"/>
+      <c r="A330" s="51"/>
+      <c r="B330" s="53"/>
       <c r="C330" s="19">
         <v>43934</v>
       </c>
@@ -8299,8 +8299,8 @@
       <c r="J330" s="27"/>
     </row>
     <row r="331" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="47"/>
-      <c r="B331" s="50"/>
+      <c r="A331" s="51"/>
+      <c r="B331" s="53"/>
       <c r="C331" s="19">
         <v>43936</v>
       </c>
@@ -8322,8 +8322,8 @@
       <c r="J331" s="34"/>
     </row>
     <row r="332" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="47"/>
-      <c r="B332" s="50"/>
+      <c r="A332" s="51"/>
+      <c r="B332" s="53"/>
       <c r="C332" s="19">
         <v>43938</v>
       </c>
@@ -8345,8 +8345,8 @@
       <c r="J332" s="34"/>
     </row>
     <row r="333" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="47"/>
-      <c r="B333" s="50"/>
+      <c r="A333" s="51"/>
+      <c r="B333" s="53"/>
       <c r="C333" s="19">
         <v>43940</v>
       </c>
@@ -8368,8 +8368,8 @@
       <c r="J333" s="34"/>
     </row>
     <row r="334" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="47"/>
-      <c r="B334" s="50"/>
+      <c r="A334" s="51"/>
+      <c r="B334" s="53"/>
       <c r="C334" s="19">
         <v>43942</v>
       </c>
@@ -8389,8 +8389,8 @@
       <c r="J334" s="34"/>
     </row>
     <row r="335" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="47"/>
-      <c r="B335" s="50"/>
+      <c r="A335" s="51"/>
+      <c r="B335" s="53"/>
       <c r="C335" s="19">
         <v>43944</v>
       </c>
@@ -8410,8 +8410,8 @@
       <c r="J335" s="34"/>
     </row>
     <row r="336" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="47"/>
-      <c r="B336" s="50"/>
+      <c r="A336" s="51"/>
+      <c r="B336" s="53"/>
       <c r="C336" s="19">
         <v>43946</v>
       </c>
@@ -8431,8 +8431,8 @@
       <c r="J336" s="34"/>
     </row>
     <row r="337" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="47"/>
-      <c r="B337" s="50"/>
+      <c r="A337" s="51"/>
+      <c r="B337" s="53"/>
       <c r="C337" s="19">
         <v>43948</v>
       </c>
@@ -8452,8 +8452,8 @@
       <c r="J337" s="34"/>
     </row>
     <row r="338" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="48"/>
-      <c r="B338" s="51"/>
+      <c r="A338" s="47"/>
+      <c r="B338" s="54"/>
       <c r="C338" s="19">
         <v>43950</v>
       </c>
@@ -8933,43 +8933,15 @@
     <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="A17:A30"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="A31:A44"/>
-    <mergeCell ref="B31:B44"/>
-    <mergeCell ref="B45:B58"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="A73:A86"/>
-    <mergeCell ref="A87:A100"/>
-    <mergeCell ref="A101:A114"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="A129:A142"/>
-    <mergeCell ref="B59:B72"/>
-    <mergeCell ref="B73:B86"/>
-    <mergeCell ref="B87:B100"/>
-    <mergeCell ref="B101:B114"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="B129:B142"/>
-    <mergeCell ref="B143:B156"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="A157:A170"/>
-    <mergeCell ref="A171:A184"/>
-    <mergeCell ref="A185:A198"/>
-    <mergeCell ref="B157:B170"/>
-    <mergeCell ref="B171:B184"/>
-    <mergeCell ref="B185:B198"/>
+    <mergeCell ref="A325:A338"/>
+    <mergeCell ref="B325:B338"/>
+    <mergeCell ref="A241:A254"/>
+    <mergeCell ref="A255:A268"/>
+    <mergeCell ref="A269:A282"/>
+    <mergeCell ref="A283:A296"/>
+    <mergeCell ref="B283:B296"/>
+    <mergeCell ref="A297:A310"/>
+    <mergeCell ref="B297:B310"/>
     <mergeCell ref="A199:A212"/>
     <mergeCell ref="A213:A226"/>
     <mergeCell ref="A227:A240"/>
@@ -8981,15 +8953,43 @@
     <mergeCell ref="B213:B226"/>
     <mergeCell ref="B227:B240"/>
     <mergeCell ref="B241:B254"/>
-    <mergeCell ref="A325:A338"/>
-    <mergeCell ref="B325:B338"/>
-    <mergeCell ref="A241:A254"/>
-    <mergeCell ref="A255:A268"/>
-    <mergeCell ref="A269:A282"/>
-    <mergeCell ref="A283:A296"/>
-    <mergeCell ref="B283:B296"/>
-    <mergeCell ref="A297:A310"/>
-    <mergeCell ref="B297:B310"/>
+    <mergeCell ref="B143:B156"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="A157:A170"/>
+    <mergeCell ref="A171:A184"/>
+    <mergeCell ref="A185:A198"/>
+    <mergeCell ref="B157:B170"/>
+    <mergeCell ref="B171:B184"/>
+    <mergeCell ref="B185:B198"/>
+    <mergeCell ref="A101:A114"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="A129:A142"/>
+    <mergeCell ref="B59:B72"/>
+    <mergeCell ref="B73:B86"/>
+    <mergeCell ref="B87:B100"/>
+    <mergeCell ref="B101:B114"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="B129:B142"/>
+    <mergeCell ref="B45:B58"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="A73:A86"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="A31:A44"/>
+    <mergeCell ref="B31:B44"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -9001,7 +9001,7 @@
   <dimension ref="A1:J605"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G110" activeCellId="1" sqref="H105:H106 G110"/>
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9019,50 +9019,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="62"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="48"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55">
-        <v>1</v>
-      </c>
-      <c r="B3" s="58" t="s">
+      <c r="A3" s="50">
+        <v>1</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3">
@@ -9082,8 +9082,8 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="3">
         <v>43972</v>
       </c>
@@ -9100,8 +9100,8 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="3">
         <v>43973</v>
       </c>
@@ -9118,8 +9118,8 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="3">
         <v>43974</v>
       </c>
@@ -9136,8 +9136,8 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="3">
         <v>43975</v>
       </c>
@@ -9154,8 +9154,8 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="3">
         <v>43976</v>
       </c>
@@ -9175,7 +9175,7 @@
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57">
+      <c r="A9" s="55">
         <v>2</v>
       </c>
       <c r="B9" s="66" t="s">
@@ -9197,7 +9197,7 @@
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="67"/>
       <c r="C10" s="19">
         <v>43972</v>
@@ -9215,7 +9215,7 @@
       <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="67"/>
       <c r="C11" s="19">
         <v>43973</v>
@@ -9233,7 +9233,7 @@
       <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="67"/>
       <c r="C12" s="19">
         <v>43974</v>
@@ -9251,7 +9251,7 @@
       <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="67"/>
       <c r="C13" s="19">
         <v>43975</v>
@@ -9269,7 +9269,7 @@
       <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="67"/>
       <c r="C14" s="19">
         <v>43976</v>
@@ -9290,10 +9290,10 @@
       <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55">
+      <c r="A15" s="50">
         <v>3</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="68" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="3">
@@ -9312,8 +9312,8 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="3">
         <v>43972</v>
       </c>
@@ -9330,8 +9330,8 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="3">
         <v>43973</v>
       </c>
@@ -9348,8 +9348,8 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="3">
         <v>43974</v>
       </c>
@@ -9366,8 +9366,8 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="3">
         <v>43975</v>
       </c>
@@ -9384,8 +9384,8 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="3">
         <v>43976</v>
       </c>
@@ -9405,10 +9405,10 @@
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57">
+      <c r="A21" s="55">
         <v>4</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="60" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="19">
@@ -9427,8 +9427,8 @@
       <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="19">
         <v>43972</v>
       </c>
@@ -9445,8 +9445,8 @@
       <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="19">
         <v>43973</v>
       </c>
@@ -9463,8 +9463,8 @@
       <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="19">
         <v>43974</v>
       </c>
@@ -9481,8 +9481,8 @@
       <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="19">
         <v>43975</v>
       </c>
@@ -9499,8 +9499,8 @@
       <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="19">
         <v>43976</v>
       </c>
@@ -9520,10 +9520,10 @@
       <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55">
+      <c r="A27" s="50">
         <v>5</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="61" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="3">
@@ -9542,8 +9542,8 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="3">
         <v>43972</v>
       </c>
@@ -9560,8 +9560,8 @@
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="3">
         <v>43973</v>
       </c>
@@ -9578,8 +9578,8 @@
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="3">
         <v>43974</v>
       </c>
@@ -9596,8 +9596,8 @@
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="3">
         <v>43975</v>
       </c>
@@ -9614,8 +9614,8 @@
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="3">
         <v>43976</v>
       </c>
@@ -9635,10 +9635,10 @@
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57">
+      <c r="A33" s="55">
         <v>6</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="60" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="19">
@@ -9657,8 +9657,8 @@
       <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="19">
         <v>43972</v>
       </c>
@@ -9675,8 +9675,8 @@
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="19">
         <v>43973</v>
       </c>
@@ -9693,8 +9693,8 @@
       <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="19">
         <v>43974</v>
       </c>
@@ -9711,8 +9711,8 @@
       <c r="J36" s="27"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="19">
         <v>43975</v>
       </c>
@@ -9729,8 +9729,8 @@
       <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="48"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="19">
         <v>43976</v>
       </c>
@@ -9750,10 +9750,10 @@
       <c r="J38" s="34"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55">
+      <c r="A39" s="50">
         <v>7</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="61" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="3">
@@ -9772,8 +9772,8 @@
       <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="3">
         <v>43972</v>
       </c>
@@ -9790,8 +9790,8 @@
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="3">
         <v>43973</v>
       </c>
@@ -9808,8 +9808,8 @@
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="3">
         <v>43974</v>
       </c>
@@ -9826,8 +9826,8 @@
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="3">
         <v>43975</v>
       </c>
@@ -9844,8 +9844,8 @@
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="3">
         <v>43976</v>
       </c>
@@ -9865,7 +9865,7 @@
       <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="57">
+      <c r="A45" s="55">
         <v>8</v>
       </c>
       <c r="B45" s="66" t="s">
@@ -9887,7 +9887,7 @@
       <c r="J45" s="27"/>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="67"/>
       <c r="C46" s="19">
         <v>43972</v>
@@ -9905,7 +9905,7 @@
       <c r="J46" s="27"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="67"/>
       <c r="C47" s="19">
         <v>43973</v>
@@ -9923,7 +9923,7 @@
       <c r="J47" s="27"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="67"/>
       <c r="C48" s="19">
         <v>43974</v>
@@ -9941,7 +9941,7 @@
       <c r="J48" s="27"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="67"/>
       <c r="C49" s="19">
         <v>43975</v>
@@ -9959,7 +9959,7 @@
       <c r="J49" s="27"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="67"/>
       <c r="C50" s="19">
         <v>43976</v>
@@ -9980,10 +9980,10 @@
       <c r="J50" s="34"/>
     </row>
     <row r="51" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="55">
+      <c r="A51" s="50">
         <v>9</v>
       </c>
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="65" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="3">
@@ -10002,8 +10002,8 @@
       <c r="J51" s="9"/>
     </row>
     <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
       <c r="C52" s="3">
         <v>43972</v>
       </c>
@@ -10020,8 +10020,8 @@
       <c r="J52" s="9"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
-      <c r="B53" s="47"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="3">
         <v>43973</v>
       </c>
@@ -10038,8 +10038,8 @@
       <c r="J53" s="9"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="3">
         <v>43974</v>
       </c>
@@ -10056,8 +10056,8 @@
       <c r="J54" s="9"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="3">
         <v>43975</v>
       </c>
@@ -10074,8 +10074,8 @@
       <c r="J55" s="9"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
-      <c r="B56" s="48"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="3">
         <v>43976</v>
       </c>
@@ -10095,10 +10095,10 @@
       <c r="J56" s="24"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="57">
+      <c r="A57" s="55">
         <v>10</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="64" t="s">
         <v>31</v>
       </c>
       <c r="C57" s="19">
@@ -10117,8 +10117,8 @@
       <c r="J57" s="27"/>
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="50"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="19">
         <v>43972</v>
       </c>
@@ -10135,8 +10135,8 @@
       <c r="J58" s="27"/>
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
-      <c r="B59" s="50"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="19">
         <v>43973</v>
       </c>
@@ -10153,8 +10153,8 @@
       <c r="J59" s="27"/>
     </row>
     <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="50"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="19">
         <v>43974</v>
       </c>
@@ -10171,8 +10171,8 @@
       <c r="J60" s="27"/>
     </row>
     <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="50"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="19">
         <v>43975</v>
       </c>
@@ -10189,8 +10189,8 @@
       <c r="J61" s="27"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="51"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="19">
         <v>43976</v>
       </c>
@@ -10210,10 +10210,10 @@
       <c r="J62" s="34"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="55">
-        <v>11</v>
-      </c>
-      <c r="B63" s="68" t="s">
+      <c r="A63" s="50">
+        <v>11</v>
+      </c>
+      <c r="B63" s="65" t="s">
         <v>32</v>
       </c>
       <c r="C63" s="3">
@@ -10231,8 +10231,8 @@
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="51"/>
       <c r="C64" s="3">
         <v>43972</v>
       </c>
@@ -10248,8 +10248,8 @@
       <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="3">
         <v>43973</v>
       </c>
@@ -10265,8 +10265,8 @@
       <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="3">
         <v>43974</v>
       </c>
@@ -10282,8 +10282,8 @@
       <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="3">
         <v>43975</v>
       </c>
@@ -10299,8 +10299,8 @@
       <c r="I67" s="11"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
-      <c r="B68" s="48"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="3">
         <v>43976</v>
       </c>
@@ -10319,10 +10319,10 @@
       <c r="I68" s="16"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="57">
+      <c r="A69" s="55">
         <v>12</v>
       </c>
-      <c r="B69" s="54" t="s">
+      <c r="B69" s="60" t="s">
         <v>33</v>
       </c>
       <c r="C69" s="19">
@@ -10341,8 +10341,8 @@
       <c r="J69" s="27"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="51"/>
       <c r="C70" s="19">
         <v>43972</v>
       </c>
@@ -10359,8 +10359,8 @@
       <c r="J70" s="27"/>
     </row>
     <row r="71" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="19">
         <v>43973</v>
       </c>
@@ -10377,8 +10377,8 @@
       <c r="J71" s="27"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
-      <c r="B72" s="47"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="51"/>
       <c r="C72" s="19">
         <v>43974</v>
       </c>
@@ -10395,8 +10395,8 @@
       <c r="J72" s="27"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="47"/>
-      <c r="B73" s="47"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="51"/>
       <c r="C73" s="19">
         <v>43975</v>
       </c>
@@ -10413,8 +10413,8 @@
       <c r="J73" s="27"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
-      <c r="B74" s="48"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="19">
         <v>43976</v>
       </c>
@@ -10434,10 +10434,10 @@
       <c r="J74" s="34"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="55">
+      <c r="A75" s="50">
         <v>13</v>
       </c>
-      <c r="B75" s="68" t="s">
+      <c r="B75" s="65" t="s">
         <v>34</v>
       </c>
       <c r="C75" s="3">
@@ -10455,8 +10455,8 @@
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
-      <c r="B76" s="47"/>
+      <c r="A76" s="51"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="3">
         <v>43972</v>
       </c>
@@ -10472,8 +10472,8 @@
       <c r="I76" s="11"/>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="47"/>
-      <c r="B77" s="47"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="51"/>
       <c r="C77" s="3">
         <v>43973</v>
       </c>
@@ -10489,8 +10489,8 @@
       <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="47"/>
-      <c r="B78" s="47"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="51"/>
       <c r="C78" s="3">
         <v>43974</v>
       </c>
@@ -10506,8 +10506,8 @@
       <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="47"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="51"/>
       <c r="C79" s="3">
         <v>43975</v>
       </c>
@@ -10523,8 +10523,8 @@
       <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
-      <c r="B80" s="48"/>
+      <c r="A80" s="51"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="3">
         <v>43976</v>
       </c>
@@ -10543,10 +10543,10 @@
       <c r="I80" s="15"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="57">
+      <c r="A81" s="55">
         <v>14</v>
       </c>
-      <c r="B81" s="54" t="s">
+      <c r="B81" s="60" t="s">
         <v>35</v>
       </c>
       <c r="C81" s="19">
@@ -10565,8 +10565,8 @@
       <c r="J81" s="27"/>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="47"/>
-      <c r="B82" s="47"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="51"/>
       <c r="C82" s="19">
         <v>43972</v>
       </c>
@@ -10583,8 +10583,8 @@
       <c r="J82" s="27"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="47"/>
-      <c r="B83" s="47"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="51"/>
       <c r="C83" s="19">
         <v>43973</v>
       </c>
@@ -10601,8 +10601,8 @@
       <c r="J83" s="27"/>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="47"/>
-      <c r="B84" s="47"/>
+      <c r="A84" s="51"/>
+      <c r="B84" s="51"/>
       <c r="C84" s="19">
         <v>43974</v>
       </c>
@@ -10619,8 +10619,8 @@
       <c r="J84" s="27"/>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="47"/>
-      <c r="B85" s="47"/>
+      <c r="A85" s="51"/>
+      <c r="B85" s="51"/>
       <c r="C85" s="19">
         <v>43975</v>
       </c>
@@ -10637,8 +10637,8 @@
       <c r="J85" s="27"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="47"/>
-      <c r="B86" s="48"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="19">
         <v>43976</v>
       </c>
@@ -10658,10 +10658,10 @@
       <c r="J86" s="34"/>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="55">
+      <c r="A87" s="50">
         <v>15</v>
       </c>
-      <c r="B87" s="53" t="s">
+      <c r="B87" s="59" t="s">
         <v>37</v>
       </c>
       <c r="C87" s="3">
@@ -10679,8 +10679,8 @@
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
-      <c r="B88" s="50"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="53"/>
       <c r="C88" s="3">
         <v>43972</v>
       </c>
@@ -10696,8 +10696,8 @@
       <c r="I88" s="11"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="47"/>
-      <c r="B89" s="50"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="53"/>
       <c r="C89" s="3">
         <v>43973</v>
       </c>
@@ -10713,8 +10713,8 @@
       <c r="I89" s="11"/>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="47"/>
-      <c r="B90" s="50"/>
+      <c r="A90" s="51"/>
+      <c r="B90" s="53"/>
       <c r="C90" s="3">
         <v>43974</v>
       </c>
@@ -10730,8 +10730,8 @@
       <c r="I90" s="11"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="47"/>
-      <c r="B91" s="50"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="53"/>
       <c r="C91" s="3">
         <v>43975</v>
       </c>
@@ -10747,8 +10747,8 @@
       <c r="I91" s="11"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="47"/>
-      <c r="B92" s="51"/>
+      <c r="A92" s="51"/>
+      <c r="B92" s="54"/>
       <c r="C92" s="3">
         <v>43976</v>
       </c>
@@ -10767,10 +10767,10 @@
       <c r="I92" s="15"/>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="46">
+      <c r="A93" s="62">
         <v>16</v>
       </c>
-      <c r="B93" s="49" t="s">
+      <c r="B93" s="64" t="s">
         <v>38</v>
       </c>
       <c r="C93" s="19">
@@ -10789,8 +10789,8 @@
       <c r="J93" s="27"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="47"/>
-      <c r="B94" s="50"/>
+      <c r="A94" s="51"/>
+      <c r="B94" s="53"/>
       <c r="C94" s="19">
         <v>43972</v>
       </c>
@@ -10807,8 +10807,8 @@
       <c r="J94" s="27"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="47"/>
-      <c r="B95" s="50"/>
+      <c r="A95" s="51"/>
+      <c r="B95" s="53"/>
       <c r="C95" s="19">
         <v>43973</v>
       </c>
@@ -10825,8 +10825,8 @@
       <c r="J95" s="27"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="47"/>
-      <c r="B96" s="50"/>
+      <c r="A96" s="51"/>
+      <c r="B96" s="53"/>
       <c r="C96" s="19">
         <v>43974</v>
       </c>
@@ -10843,8 +10843,8 @@
       <c r="J96" s="27"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="47"/>
-      <c r="B97" s="50"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="53"/>
       <c r="C97" s="19">
         <v>43975</v>
       </c>
@@ -10861,8 +10861,8 @@
       <c r="J97" s="27"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="47"/>
-      <c r="B98" s="51"/>
+      <c r="A98" s="51"/>
+      <c r="B98" s="54"/>
       <c r="C98" s="19">
         <v>43976</v>
       </c>
@@ -10882,10 +10882,10 @@
       <c r="J98" s="34"/>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="52">
+      <c r="A99" s="63">
         <v>17</v>
       </c>
-      <c r="B99" s="56" t="s">
+      <c r="B99" s="61" t="s">
         <v>39</v>
       </c>
       <c r="C99" s="3">
@@ -10903,8 +10903,8 @@
       <c r="I99" s="8"/>
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="47"/>
-      <c r="B100" s="47"/>
+      <c r="A100" s="51"/>
+      <c r="B100" s="51"/>
       <c r="C100" s="3">
         <v>43972</v>
       </c>
@@ -10920,8 +10920,8 @@
       <c r="I100" s="11"/>
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="47"/>
-      <c r="B101" s="47"/>
+      <c r="A101" s="51"/>
+      <c r="B101" s="51"/>
       <c r="C101" s="3">
         <v>43973</v>
       </c>
@@ -10937,8 +10937,8 @@
       <c r="I101" s="11"/>
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="47"/>
-      <c r="B102" s="47"/>
+      <c r="A102" s="51"/>
+      <c r="B102" s="51"/>
       <c r="C102" s="3">
         <v>43974</v>
       </c>
@@ -10954,8 +10954,8 @@
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="47"/>
-      <c r="B103" s="47"/>
+      <c r="A103" s="51"/>
+      <c r="B103" s="51"/>
       <c r="C103" s="3">
         <v>43975</v>
       </c>
@@ -10971,8 +10971,8 @@
       <c r="I103" s="11"/>
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="47"/>
-      <c r="B104" s="48"/>
+      <c r="A104" s="51"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="3">
         <v>43976</v>
       </c>
@@ -10991,10 +10991,10 @@
       <c r="I104" s="15"/>
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="46">
+      <c r="A105" s="62">
         <v>18</v>
       </c>
-      <c r="B105" s="49" t="s">
+      <c r="B105" s="64" t="s">
         <v>41</v>
       </c>
       <c r="C105" s="19">
@@ -11015,8 +11015,8 @@
       <c r="J105" s="27"/>
     </row>
     <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="47"/>
-      <c r="B106" s="50"/>
+      <c r="A106" s="51"/>
+      <c r="B106" s="53"/>
       <c r="C106" s="19">
         <v>43972</v>
       </c>
@@ -11035,8 +11035,8 @@
       <c r="J106" s="27"/>
     </row>
     <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="47"/>
-      <c r="B107" s="50"/>
+      <c r="A107" s="51"/>
+      <c r="B107" s="53"/>
       <c r="C107" s="19">
         <v>43973</v>
       </c>
@@ -11048,13 +11048,15 @@
         <v>13</v>
       </c>
       <c r="G107" s="20"/>
-      <c r="H107" s="23"/>
+      <c r="H107" s="30" t="s">
+        <v>58</v>
+      </c>
       <c r="I107" s="30"/>
       <c r="J107" s="27"/>
     </row>
     <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="47"/>
-      <c r="B108" s="50"/>
+      <c r="A108" s="51"/>
+      <c r="B108" s="53"/>
       <c r="C108" s="19">
         <v>43974</v>
       </c>
@@ -11066,13 +11068,15 @@
         <v>14</v>
       </c>
       <c r="G108" s="20"/>
-      <c r="H108" s="23"/>
+      <c r="H108" s="30" t="s">
+        <v>58</v>
+      </c>
       <c r="I108" s="30"/>
       <c r="J108" s="27"/>
     </row>
     <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="47"/>
-      <c r="B109" s="50"/>
+      <c r="A109" s="51"/>
+      <c r="B109" s="53"/>
       <c r="C109" s="19">
         <v>43975</v>
       </c>
@@ -11089,8 +11093,8 @@
       <c r="J109" s="27"/>
     </row>
     <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="47"/>
-      <c r="B110" s="51"/>
+      <c r="A110" s="51"/>
+      <c r="B110" s="54"/>
       <c r="C110" s="19">
         <v>43976</v>
       </c>
@@ -11110,10 +11114,10 @@
       <c r="J110" s="34"/>
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="52">
+      <c r="A111" s="63">
         <v>19</v>
       </c>
-      <c r="B111" s="53" t="s">
+      <c r="B111" s="59" t="s">
         <v>42</v>
       </c>
       <c r="C111" s="3">
@@ -11131,8 +11135,8 @@
       <c r="I111" s="8"/>
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="47"/>
-      <c r="B112" s="50"/>
+      <c r="A112" s="51"/>
+      <c r="B112" s="53"/>
       <c r="C112" s="3">
         <v>43972</v>
       </c>
@@ -11148,8 +11152,8 @@
       <c r="I112" s="11"/>
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="47"/>
-      <c r="B113" s="50"/>
+      <c r="A113" s="51"/>
+      <c r="B113" s="53"/>
       <c r="C113" s="3">
         <v>43973</v>
       </c>
@@ -11165,8 +11169,8 @@
       <c r="I113" s="11"/>
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="47"/>
-      <c r="B114" s="50"/>
+      <c r="A114" s="51"/>
+      <c r="B114" s="53"/>
       <c r="C114" s="3">
         <v>43974</v>
       </c>
@@ -11182,8 +11186,8 @@
       <c r="I114" s="11"/>
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="47"/>
-      <c r="B115" s="50"/>
+      <c r="A115" s="51"/>
+      <c r="B115" s="53"/>
       <c r="C115" s="3">
         <v>43975</v>
       </c>
@@ -11199,8 +11203,8 @@
       <c r="I115" s="11"/>
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="47"/>
-      <c r="B116" s="51"/>
+      <c r="A116" s="51"/>
+      <c r="B116" s="54"/>
       <c r="C116" s="3">
         <v>43976</v>
       </c>
@@ -11219,10 +11223,10 @@
       <c r="I116" s="15"/>
     </row>
     <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="46">
+      <c r="A117" s="62">
         <v>20</v>
       </c>
-      <c r="B117" s="49" t="s">
+      <c r="B117" s="64" t="s">
         <v>43</v>
       </c>
       <c r="C117" s="19">
@@ -11241,8 +11245,8 @@
       <c r="J117" s="27"/>
     </row>
     <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="47"/>
-      <c r="B118" s="50"/>
+      <c r="A118" s="51"/>
+      <c r="B118" s="53"/>
       <c r="C118" s="19">
         <v>43972</v>
       </c>
@@ -11259,8 +11263,8 @@
       <c r="J118" s="27"/>
     </row>
     <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="47"/>
-      <c r="B119" s="50"/>
+      <c r="A119" s="51"/>
+      <c r="B119" s="53"/>
       <c r="C119" s="19">
         <v>43973</v>
       </c>
@@ -11277,8 +11281,8 @@
       <c r="J119" s="27"/>
     </row>
     <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="47"/>
-      <c r="B120" s="50"/>
+      <c r="A120" s="51"/>
+      <c r="B120" s="53"/>
       <c r="C120" s="19">
         <v>43974</v>
       </c>
@@ -11295,8 +11299,8 @@
       <c r="J120" s="27"/>
     </row>
     <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="47"/>
-      <c r="B121" s="50"/>
+      <c r="A121" s="51"/>
+      <c r="B121" s="53"/>
       <c r="C121" s="19">
         <v>43975</v>
       </c>
@@ -11313,8 +11317,8 @@
       <c r="J121" s="27"/>
     </row>
     <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="47"/>
-      <c r="B122" s="51"/>
+      <c r="A122" s="51"/>
+      <c r="B122" s="54"/>
       <c r="C122" s="19">
         <v>43976</v>
       </c>
@@ -11334,10 +11338,10 @@
       <c r="J122" s="34"/>
     </row>
     <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="52">
+      <c r="A123" s="63">
         <v>21</v>
       </c>
-      <c r="B123" s="53" t="s">
+      <c r="B123" s="59" t="s">
         <v>44</v>
       </c>
       <c r="C123" s="3">
@@ -11355,8 +11359,8 @@
       <c r="I123" s="8"/>
     </row>
     <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="47"/>
-      <c r="B124" s="50"/>
+      <c r="A124" s="51"/>
+      <c r="B124" s="53"/>
       <c r="C124" s="3">
         <v>43972</v>
       </c>
@@ -11372,8 +11376,8 @@
       <c r="I124" s="11"/>
     </row>
     <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="47"/>
-      <c r="B125" s="50"/>
+      <c r="A125" s="51"/>
+      <c r="B125" s="53"/>
       <c r="C125" s="3">
         <v>43973</v>
       </c>
@@ -11389,8 +11393,8 @@
       <c r="I125" s="11"/>
     </row>
     <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="47"/>
-      <c r="B126" s="50"/>
+      <c r="A126" s="51"/>
+      <c r="B126" s="53"/>
       <c r="C126" s="3">
         <v>43974</v>
       </c>
@@ -11406,8 +11410,8 @@
       <c r="I126" s="11"/>
     </row>
     <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="47"/>
-      <c r="B127" s="50"/>
+      <c r="A127" s="51"/>
+      <c r="B127" s="53"/>
       <c r="C127" s="3">
         <v>43975</v>
       </c>
@@ -11423,8 +11427,8 @@
       <c r="I127" s="11"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="47"/>
-      <c r="B128" s="51"/>
+      <c r="A128" s="51"/>
+      <c r="B128" s="54"/>
       <c r="C128" s="3">
         <v>43976</v>
       </c>
@@ -11443,10 +11447,10 @@
       <c r="I128" s="15"/>
     </row>
     <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="46">
+      <c r="A129" s="62">
         <v>22</v>
       </c>
-      <c r="B129" s="54" t="s">
+      <c r="B129" s="60" t="s">
         <v>45</v>
       </c>
       <c r="C129" s="19">
@@ -11465,8 +11469,8 @@
       <c r="J129" s="27"/>
     </row>
     <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="47"/>
-      <c r="B130" s="47"/>
+      <c r="A130" s="51"/>
+      <c r="B130" s="51"/>
       <c r="C130" s="19">
         <v>43972</v>
       </c>
@@ -11483,8 +11487,8 @@
       <c r="J130" s="27"/>
     </row>
     <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="47"/>
-      <c r="B131" s="47"/>
+      <c r="A131" s="51"/>
+      <c r="B131" s="51"/>
       <c r="C131" s="19">
         <v>43973</v>
       </c>
@@ -11501,8 +11505,8 @@
       <c r="J131" s="27"/>
     </row>
     <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="47"/>
-      <c r="B132" s="47"/>
+      <c r="A132" s="51"/>
+      <c r="B132" s="51"/>
       <c r="C132" s="19">
         <v>43974</v>
       </c>
@@ -11519,8 +11523,8 @@
       <c r="J132" s="27"/>
     </row>
     <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="47"/>
-      <c r="B133" s="47"/>
+      <c r="A133" s="51"/>
+      <c r="B133" s="51"/>
       <c r="C133" s="19">
         <v>43975</v>
       </c>
@@ -11537,8 +11541,8 @@
       <c r="J133" s="27"/>
     </row>
     <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="47"/>
-      <c r="B134" s="48"/>
+      <c r="A134" s="51"/>
+      <c r="B134" s="47"/>
       <c r="C134" s="19">
         <v>43976</v>
       </c>
@@ -11558,10 +11562,10 @@
       <c r="J134" s="34"/>
     </row>
     <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="52">
+      <c r="A135" s="63">
         <v>23</v>
       </c>
-      <c r="B135" s="53" t="s">
+      <c r="B135" s="59" t="s">
         <v>46</v>
       </c>
       <c r="C135" s="3">
@@ -11579,8 +11583,8 @@
       <c r="I135" s="8"/>
     </row>
     <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="47"/>
-      <c r="B136" s="50"/>
+      <c r="A136" s="51"/>
+      <c r="B136" s="53"/>
       <c r="C136" s="3">
         <v>43972</v>
       </c>
@@ -11596,8 +11600,8 @@
       <c r="I136" s="11"/>
     </row>
     <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="47"/>
-      <c r="B137" s="50"/>
+      <c r="A137" s="51"/>
+      <c r="B137" s="53"/>
       <c r="C137" s="3">
         <v>43973</v>
       </c>
@@ -11613,8 +11617,8 @@
       <c r="I137" s="11"/>
     </row>
     <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="47"/>
-      <c r="B138" s="50"/>
+      <c r="A138" s="51"/>
+      <c r="B138" s="53"/>
       <c r="C138" s="3">
         <v>43974</v>
       </c>
@@ -11630,8 +11634,8 @@
       <c r="I138" s="11"/>
     </row>
     <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="47"/>
-      <c r="B139" s="50"/>
+      <c r="A139" s="51"/>
+      <c r="B139" s="53"/>
       <c r="C139" s="3">
         <v>43975</v>
       </c>
@@ -11647,8 +11651,8 @@
       <c r="I139" s="11"/>
     </row>
     <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="47"/>
-      <c r="B140" s="51"/>
+      <c r="A140" s="51"/>
+      <c r="B140" s="54"/>
       <c r="C140" s="3">
         <v>43976</v>
       </c>
@@ -11667,10 +11671,10 @@
       <c r="I140" s="15"/>
     </row>
     <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="46">
+      <c r="A141" s="62">
         <v>24</v>
       </c>
-      <c r="B141" s="49" t="s">
+      <c r="B141" s="64" t="s">
         <v>47</v>
       </c>
       <c r="C141" s="19">
@@ -11689,8 +11693,8 @@
       <c r="J141" s="27"/>
     </row>
     <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="47"/>
-      <c r="B142" s="50"/>
+      <c r="A142" s="51"/>
+      <c r="B142" s="53"/>
       <c r="C142" s="19">
         <v>43972</v>
       </c>
@@ -11707,8 +11711,8 @@
       <c r="J142" s="27"/>
     </row>
     <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="47"/>
-      <c r="B143" s="50"/>
+      <c r="A143" s="51"/>
+      <c r="B143" s="53"/>
       <c r="C143" s="19">
         <v>43973</v>
       </c>
@@ -11725,8 +11729,8 @@
       <c r="J143" s="27"/>
     </row>
     <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="47"/>
-      <c r="B144" s="50"/>
+      <c r="A144" s="51"/>
+      <c r="B144" s="53"/>
       <c r="C144" s="19">
         <v>43974</v>
       </c>
@@ -11743,8 +11747,8 @@
       <c r="J144" s="27"/>
     </row>
     <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="47"/>
-      <c r="B145" s="50"/>
+      <c r="A145" s="51"/>
+      <c r="B145" s="53"/>
       <c r="C145" s="19">
         <v>43975</v>
       </c>
@@ -11761,8 +11765,8 @@
       <c r="J145" s="27"/>
     </row>
     <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="48"/>
-      <c r="B146" s="51"/>
+      <c r="A146" s="47"/>
+      <c r="B146" s="54"/>
       <c r="C146" s="19">
         <v>43976</v>
       </c>
@@ -12242,15 +12246,38 @@
     <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B123:B128"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="A69:A74"/>
     <mergeCell ref="B129:B134"/>
     <mergeCell ref="B135:B140"/>
     <mergeCell ref="B141:B146"/>
@@ -12267,38 +12294,15 @@
     <mergeCell ref="B93:B98"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="B39:B44"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B123:B128"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A51:A56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
